--- a/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32088202819506</v>
+        <v>20.39169444439002</v>
       </c>
       <c r="C2">
-        <v>19.60565159521811</v>
+        <v>10.29458065433002</v>
       </c>
       <c r="D2">
-        <v>3.119235011270592</v>
+        <v>5.142490355793818</v>
       </c>
       <c r="E2">
-        <v>7.605279221701668</v>
+        <v>7.151816356851824</v>
       </c>
       <c r="F2">
-        <v>40.36298069460672</v>
+        <v>37.44695507562382</v>
       </c>
       <c r="I2">
-        <v>25.00680244219146</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.319099275543335</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.25606344718544</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.127061626676374</v>
       </c>
       <c r="M2">
-        <v>17.12604682924203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>29.79697755876287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80351318127654</v>
+        <v>18.94156159064462</v>
       </c>
       <c r="C3">
-        <v>18.17702632079914</v>
+        <v>9.788093613376207</v>
       </c>
       <c r="D3">
-        <v>3.161652151851365</v>
+        <v>5.200278328806546</v>
       </c>
       <c r="E3">
-        <v>7.328249128619797</v>
+        <v>7.108238339750554</v>
       </c>
       <c r="F3">
-        <v>38.24045701984634</v>
+        <v>35.85333511976047</v>
       </c>
       <c r="I3">
-        <v>24.07884053474711</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.174197246404495</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.12636172433622</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.897870559600934</v>
       </c>
       <c r="M3">
-        <v>15.92997431347675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.71712274347465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82512481886734</v>
+        <v>18.05913329471764</v>
       </c>
       <c r="C4">
-        <v>17.25824740001014</v>
+        <v>9.465051518199468</v>
       </c>
       <c r="D4">
-        <v>3.189121347642456</v>
+        <v>5.236857311846878</v>
       </c>
       <c r="E4">
-        <v>7.16059232621691</v>
+        <v>7.085139283137766</v>
       </c>
       <c r="F4">
-        <v>36.92660398677148</v>
+        <v>34.87512265104941</v>
       </c>
       <c r="I4">
-        <v>23.51974499784785</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.090433664173958</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.39667706457896</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.758884920996884</v>
       </c>
       <c r="M4">
-        <v>15.16027537768032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.06145000540651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.41444985857833</v>
+        <v>17.70668478616816</v>
       </c>
       <c r="C5">
-        <v>16.87314243616346</v>
+        <v>9.330396774793995</v>
       </c>
       <c r="D5">
-        <v>3.200644435704989</v>
+        <v>5.252032789498595</v>
       </c>
       <c r="E5">
-        <v>7.092918481254706</v>
+        <v>7.076614705725361</v>
       </c>
       <c r="F5">
-        <v>36.38888681923021</v>
+        <v>34.4769135308013</v>
       </c>
       <c r="I5">
-        <v>23.2946411817309</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.057562038925814</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.09012981061717</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.702735100255366</v>
       </c>
       <c r="M5">
-        <v>14.83756236998985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>27.7962860463397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3455280895001</v>
+        <v>17.64768033272947</v>
       </c>
       <c r="C6">
-        <v>16.80854359084607</v>
+        <v>9.307856410136219</v>
       </c>
       <c r="D6">
-        <v>3.202576950495283</v>
+        <v>5.254568761182229</v>
       </c>
       <c r="E6">
-        <v>7.08172156403966</v>
+        <v>7.075251961518569</v>
       </c>
       <c r="F6">
-        <v>36.2994726785539</v>
+        <v>34.41082805352158</v>
       </c>
       <c r="I6">
-        <v>23.2574297480272</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.052178659401694</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.03866883782896</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.693442513075552</v>
       </c>
       <c r="M6">
-        <v>14.78342441293813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>27.75238391984819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81963508213514</v>
+        <v>18.05441239072226</v>
       </c>
       <c r="C7">
-        <v>17.25309734072832</v>
+        <v>9.463247676618893</v>
       </c>
       <c r="D7">
-        <v>3.189275454445018</v>
+        <v>5.237060891173994</v>
       </c>
       <c r="E7">
-        <v>7.159676979517274</v>
+        <v>7.085020761314613</v>
       </c>
       <c r="F7">
-        <v>36.91936093511698</v>
+        <v>34.86975005207182</v>
       </c>
       <c r="I7">
-        <v>23.5166980251945</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.089985293736367</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.39258025884289</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.75812561848006</v>
       </c>
       <c r="M7">
-        <v>15.15596003977895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.05786544750914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.807248128207</v>
+        <v>19.90084320279778</v>
       </c>
       <c r="C8">
-        <v>19.12154706671807</v>
+        <v>10.12245262544788</v>
       </c>
       <c r="D8">
-        <v>3.13354566846875</v>
+        <v>5.162183565234049</v>
       </c>
       <c r="E8">
-        <v>7.509269938286297</v>
+        <v>7.136012346652991</v>
       </c>
       <c r="F8">
-        <v>39.6335104522726</v>
+        <v>36.89760746634568</v>
       </c>
       <c r="I8">
-        <v>24.68464427246856</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.268027690244604</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.8739412360419</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.047704435583428</v>
       </c>
       <c r="M8">
-        <v>16.72085691268732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>29.42321229357679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.3454299283747</v>
+        <v>23.27900621170956</v>
       </c>
       <c r="C9">
-        <v>22.46730688819143</v>
+        <v>11.31955424485019</v>
       </c>
       <c r="D9">
-        <v>3.037163108482541</v>
+        <v>5.024434700817244</v>
       </c>
       <c r="E9">
-        <v>8.213320624244512</v>
+        <v>7.266486242154019</v>
       </c>
       <c r="F9">
-        <v>44.86344613163853</v>
+        <v>40.86478274155921</v>
       </c>
       <c r="I9">
-        <v>27.05961152920839</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.660745203078344</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.4993043602239</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.627479959885283</v>
       </c>
       <c r="M9">
-        <v>19.51843451127584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.15316957784774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.74306557395627</v>
+        <v>25.56022010173929</v>
       </c>
       <c r="C10">
-        <v>24.74995591264498</v>
+        <v>12.14219728310117</v>
       </c>
       <c r="D10">
-        <v>2.976987162517541</v>
+        <v>4.929467735627973</v>
       </c>
       <c r="E10">
-        <v>8.741895915207461</v>
+        <v>7.383036431786605</v>
       </c>
       <c r="F10">
-        <v>48.64993396185046</v>
+        <v>43.76427945479212</v>
       </c>
       <c r="I10">
-        <v>28.85999316248014</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.979418308871275</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.26743803990026</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.058838628446431</v>
       </c>
       <c r="M10">
-        <v>21.42266819214669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.18644848030856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.79443043518819</v>
+        <v>26.55722377495815</v>
       </c>
       <c r="C11">
-        <v>25.75513213657646</v>
+        <v>12.50475802324667</v>
       </c>
       <c r="D11">
-        <v>2.952737327574526</v>
+        <v>4.887838142733401</v>
       </c>
       <c r="E11">
-        <v>8.985229879120494</v>
+        <v>7.441049139260127</v>
       </c>
       <c r="F11">
-        <v>50.36392671581316</v>
+        <v>45.07993111759598</v>
       </c>
       <c r="I11">
-        <v>29.69332568415456</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.131906718114518</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.03931748388478</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.256072605449715</v>
       </c>
       <c r="M11">
-        <v>22.25984816965764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.11763910099549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.18732992217682</v>
+        <v>26.92917550674572</v>
       </c>
       <c r="C12">
-        <v>26.13146438379646</v>
+        <v>12.64045199016569</v>
       </c>
       <c r="D12">
-        <v>2.944091429333536</v>
+        <v>4.872324658207824</v>
       </c>
       <c r="E12">
-        <v>9.077855389901188</v>
+        <v>7.463780198092371</v>
       </c>
       <c r="F12">
-        <v>51.0122892123403</v>
+        <v>45.57777499831558</v>
       </c>
       <c r="I12">
-        <v>30.01124850720285</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.190831512564726</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.32716537386226</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.330906811544651</v>
       </c>
       <c r="M12">
-        <v>22.57305009627107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.47125743790877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.10293711296645</v>
+        <v>26.84931314745506</v>
       </c>
       <c r="C13">
-        <v>26.05059775936003</v>
+        <v>12.61129757718583</v>
       </c>
       <c r="D13">
-        <v>2.945927997271066</v>
+        <v>4.875654154380259</v>
       </c>
       <c r="E13">
-        <v>9.057884104367831</v>
+        <v>7.458849966790448</v>
       </c>
       <c r="F13">
-        <v>50.87267266698985</v>
+        <v>45.47056861708101</v>
       </c>
       <c r="I13">
-        <v>29.94266737404605</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.178086693711014</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.26536614107834</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.314783257646525</v>
       </c>
       <c r="M13">
-        <v>22.50576003231461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.39505268014518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.82685665654472</v>
+        <v>26.58793489377494</v>
       </c>
       <c r="C14">
-        <v>25.78617657080568</v>
+        <v>12.51595319799295</v>
       </c>
       <c r="D14">
-        <v>2.952014693207891</v>
+        <v>4.88655665072789</v>
       </c>
       <c r="E14">
-        <v>8.992840128787162</v>
+        <v>7.442903675132502</v>
       </c>
       <c r="F14">
-        <v>50.41727790340316</v>
+        <v>45.12089529050951</v>
       </c>
       <c r="I14">
-        <v>29.71943204246849</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.136730192944313</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.06308665713837</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.262226275908628</v>
       </c>
       <c r="M14">
-        <v>22.28568978260967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.14671068078388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.65708206959867</v>
+        <v>26.42711340186969</v>
       </c>
       <c r="C15">
-        <v>25.62366533234466</v>
+        <v>12.45734629228687</v>
       </c>
       <c r="D15">
-        <v>2.955815821813093</v>
+        <v>4.89326823419838</v>
       </c>
       <c r="E15">
-        <v>8.953063810154338</v>
+        <v>7.433236867846615</v>
       </c>
       <c r="F15">
-        <v>50.13826507361252</v>
+        <v>44.90666807680925</v>
       </c>
       <c r="I15">
-        <v>29.58301167880909</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.111555191991725</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.93861258873623</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.230052902732181</v>
       </c>
       <c r="M15">
-        <v>22.15040453229096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.99472806663599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.67360002451164</v>
+        <v>25.49426583300757</v>
       </c>
       <c r="C16">
-        <v>24.68363553204671</v>
+        <v>12.11827454069525</v>
       </c>
       <c r="D16">
-        <v>2.978641903632224</v>
+        <v>4.932221935033806</v>
       </c>
       <c r="E16">
-        <v>8.726056429946462</v>
+        <v>7.379349386146323</v>
       </c>
       <c r="F16">
-        <v>48.5377903319408</v>
+        <v>43.67823868610245</v>
       </c>
       <c r="I16">
-        <v>28.80584429868594</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.969612226208075</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.21635917092421</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.045968958659159</v>
       </c>
       <c r="M16">
-        <v>21.3674011745906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.12572535266143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06047664953602</v>
+        <v>24.91173973174644</v>
       </c>
       <c r="C17">
-        <v>24.09876397505399</v>
+        <v>11.9073264651758</v>
       </c>
       <c r="D17">
-        <v>2.993502048026551</v>
+        <v>4.956537098821862</v>
       </c>
       <c r="E17">
-        <v>8.587570806722573</v>
+        <v>7.347600750116569</v>
       </c>
       <c r="F17">
-        <v>47.55408890581504</v>
+        <v>42.92382919396621</v>
       </c>
       <c r="I17">
-        <v>28.33292656219261</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.88452599629755</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.76511753665212</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.933293649967956</v>
       </c>
       <c r="M17">
-        <v>20.87984914626077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.59426620837071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.70409346492007</v>
+        <v>24.57283440578012</v>
       </c>
       <c r="C18">
-        <v>23.75920335002031</v>
+        <v>11.78489106600027</v>
       </c>
       <c r="D18">
-        <v>3.002337074493796</v>
+        <v>4.97066864864021</v>
       </c>
       <c r="E18">
-        <v>8.508183280048314</v>
+        <v>7.329806879050779</v>
       </c>
       <c r="F18">
-        <v>46.98744596515124</v>
+        <v>42.48958463780242</v>
       </c>
       <c r="I18">
-        <v>28.06224195598785</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.836287748343946</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.50250607210738</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.868579639438675</v>
       </c>
       <c r="M18">
-        <v>20.59666193427215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.28916219421037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.58277544305519</v>
+        <v>24.4574178185218</v>
       </c>
       <c r="C19">
-        <v>23.64367837674331</v>
+        <v>11.74324495610757</v>
       </c>
       <c r="D19">
-        <v>3.005375521746852</v>
+        <v>4.975477780039498</v>
       </c>
       <c r="E19">
-        <v>8.481348132043665</v>
+        <v>7.323861104976875</v>
       </c>
       <c r="F19">
-        <v>46.79543255220433</v>
+        <v>42.34249875077897</v>
       </c>
       <c r="I19">
-        <v>27.97081302798894</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.820072814028192</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.41305686669551</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.84668490154313</v>
       </c>
       <c r="M19">
-        <v>20.50029543882958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.1859565475624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.12612791064061</v>
+        <v>24.97414745521569</v>
       </c>
       <c r="C20">
-        <v>24.16134820874548</v>
+        <v>11.9298959737979</v>
       </c>
       <c r="D20">
-        <v>2.991889789850937</v>
+        <v>4.953933424982837</v>
       </c>
       <c r="E20">
-        <v>8.602284950558243</v>
+        <v>7.350931791323964</v>
       </c>
       <c r="F20">
-        <v>47.65888973665169</v>
+        <v>43.00417084028243</v>
       </c>
       <c r="I20">
-        <v>28.38313049370429</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7.893510354094836</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.81346910895998</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.945278453128754</v>
       </c>
       <c r="M20">
-        <v>20.93203312403566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.65078072075686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.90808640021601</v>
+        <v>26.66485749746672</v>
       </c>
       <c r="C21">
-        <v>25.86395624878202</v>
+        <v>12.54400085882047</v>
       </c>
       <c r="D21">
-        <v>2.950211517368964</v>
+        <v>4.883347291267697</v>
       </c>
       <c r="E21">
-        <v>9.011931416373805</v>
+        <v>7.447566403653004</v>
       </c>
       <c r="F21">
-        <v>50.5510518024693</v>
+        <v>45.22361125562277</v>
       </c>
       <c r="I21">
-        <v>29.78493477175332</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.148844664526338</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.12261982884068</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.277659491252431</v>
       </c>
       <c r="M21">
-        <v>22.35043028296786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.21962652852098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.04246287431214</v>
+        <v>27.73738945969209</v>
       </c>
       <c r="C22">
-        <v>26.95188257664459</v>
+        <v>12.93607893989249</v>
       </c>
       <c r="D22">
-        <v>2.926157303560177</v>
+        <v>4.838692703107657</v>
       </c>
       <c r="E22">
-        <v>9.282510976994763</v>
+        <v>7.515193624554143</v>
       </c>
       <c r="F22">
-        <v>52.43763178660837</v>
+        <v>46.67215103862141</v>
       </c>
       <c r="I22">
-        <v>30.71505798411433</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>8.322664315213517</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.95243132029191</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.495751934185481</v>
       </c>
       <c r="M22">
-        <v>23.25537793639455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.25086948136741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.439633608852</v>
+        <v>27.16783063635394</v>
       </c>
       <c r="C23">
-        <v>26.37333257323165</v>
+        <v>12.72763729148087</v>
       </c>
       <c r="D23">
-        <v>2.938670007572906</v>
+        <v>4.862380701195768</v>
       </c>
       <c r="E23">
-        <v>9.137806907344025</v>
+        <v>7.478674621412075</v>
       </c>
       <c r="F23">
-        <v>51.43082720310503</v>
+        <v>45.89915317080933</v>
       </c>
       <c r="I23">
-        <v>30.21722870711874</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>8.229219845778767</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.51182587975939</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.379268714046654</v>
       </c>
       <c r="M23">
-        <v>22.77427480215554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.69988179836244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.09645912449558</v>
+        <v>24.94594541244997</v>
       </c>
       <c r="C24">
-        <v>24.13306422156171</v>
+        <v>11.91969591312009</v>
       </c>
       <c r="D24">
-        <v>2.992617789492444</v>
+        <v>4.955110072914555</v>
       </c>
       <c r="E24">
-        <v>8.595631975184894</v>
+        <v>7.349424401732721</v>
       </c>
       <c r="F24">
-        <v>47.61151274440768</v>
+        <v>42.96785002299555</v>
       </c>
       <c r="I24">
-        <v>28.36042957300339</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7.889446418313588</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.79161930513208</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.939859922527743</v>
       </c>
       <c r="M24">
-        <v>20.90844976657476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.62522914902436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.42507434209858</v>
+        <v>22.40122766703582</v>
       </c>
       <c r="C25">
-        <v>21.59448273020233</v>
+        <v>11.00585931635961</v>
       </c>
       <c r="D25">
-        <v>3.06160391824516</v>
+        <v>5.060665291270141</v>
       </c>
       <c r="E25">
-        <v>8.020936913801197</v>
+        <v>7.227715240411403</v>
       </c>
       <c r="F25">
-        <v>43.45905893222552</v>
+        <v>39.79386510487367</v>
       </c>
       <c r="I25">
-        <v>26.4078742325681</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>7.549498281036699</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.81805311044911</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.469588553225058</v>
       </c>
       <c r="M25">
-        <v>18.78928995720986</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.40966603413122</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
@@ -421,31 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.39169444439002</v>
+        <v>25.36842808081741</v>
       </c>
       <c r="C2">
-        <v>10.29458065433002</v>
+        <v>19.65664177576702</v>
       </c>
       <c r="D2">
-        <v>5.142490355793818</v>
+        <v>3.819341078263467</v>
       </c>
       <c r="E2">
-        <v>7.151816356851824</v>
+        <v>30.1415806845092</v>
       </c>
       <c r="F2">
-        <v>37.44695507562382</v>
+        <v>16.32844048507718</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>8.21366000391739</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.25606344718544</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.127061626676374</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.79697755876287</v>
+        <v>11.97460522680993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.94156159064462</v>
+        <v>23.72218028133327</v>
       </c>
       <c r="C3">
-        <v>9.788093613376207</v>
+        <v>18.4239640285501</v>
       </c>
       <c r="D3">
-        <v>5.200278328806546</v>
+        <v>3.672593532825415</v>
       </c>
       <c r="E3">
-        <v>7.108238339750554</v>
+        <v>27.93574351891154</v>
       </c>
       <c r="F3">
-        <v>35.85333511976047</v>
+        <v>15.64597745715749</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.612478628125363</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.12636172433622</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.897870559600934</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.71712274347465</v>
+        <v>11.71816738688647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.05913329471764</v>
+        <v>22.65380423190686</v>
       </c>
       <c r="C4">
-        <v>9.465051518199468</v>
+        <v>17.62588665225236</v>
       </c>
       <c r="D4">
-        <v>5.236857311846878</v>
+        <v>3.579499160473567</v>
       </c>
       <c r="E4">
-        <v>7.085139283137766</v>
+        <v>26.51891907388413</v>
       </c>
       <c r="F4">
-        <v>34.87512265104941</v>
+        <v>15.24423381952355</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.874641537310564</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.39667706457896</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.758884920996884</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.06145000540651</v>
+        <v>11.58523953072986</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.70668478616816</v>
+        <v>22.20390660534271</v>
       </c>
       <c r="C5">
-        <v>9.330396774793995</v>
+        <v>17.29030787781309</v>
       </c>
       <c r="D5">
-        <v>5.252032789498595</v>
+        <v>3.540846972788435</v>
       </c>
       <c r="E5">
-        <v>7.076614705725361</v>
+        <v>25.92547915183348</v>
       </c>
       <c r="F5">
-        <v>34.4769135308013</v>
+        <v>15.08504396092518</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.985420420042932</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.09012981061717</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.702735100255366</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.7962860463397</v>
+        <v>11.53703679180471</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.64768033272947</v>
+        <v>22.12832306201501</v>
       </c>
       <c r="C6">
-        <v>9.307856410136219</v>
+        <v>17.23396046889813</v>
       </c>
       <c r="D6">
-        <v>5.254568761182229</v>
+        <v>3.534386769038521</v>
       </c>
       <c r="E6">
-        <v>7.075251961518569</v>
+        <v>25.82595772713947</v>
       </c>
       <c r="F6">
-        <v>34.41082805352158</v>
+        <v>15.0588888864425</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>9.004043220822266</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.03866883782896</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.693442513075552</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.75238391984819</v>
+        <v>11.52938653887453</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.05441239072226</v>
+        <v>22.64779562081482</v>
       </c>
       <c r="C7">
-        <v>9.463247676618893</v>
+        <v>17.62140282418608</v>
       </c>
       <c r="D7">
-        <v>5.237060891173994</v>
+        <v>3.57898072817291</v>
       </c>
       <c r="E7">
-        <v>7.085020761314613</v>
+        <v>26.51098128820306</v>
       </c>
       <c r="F7">
-        <v>34.86975005207182</v>
+        <v>15.24206838253332</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.876120038075975</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.39258025884289</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.75812561848006</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.05786544750914</v>
+        <v>11.58456558603678</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.90084320279778</v>
+        <v>24.81271655364124</v>
       </c>
       <c r="C8">
-        <v>10.12245262544788</v>
+        <v>19.24016388192344</v>
       </c>
       <c r="D8">
-        <v>5.162183565234049</v>
+        <v>3.769383538143668</v>
       </c>
       <c r="E8">
-        <v>7.136012346652991</v>
+        <v>29.39373235565155</v>
       </c>
       <c r="F8">
-        <v>36.89760746634568</v>
+        <v>16.08964379093913</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8.34731655356949</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.8739412360419</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.047704435583428</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.42321229357679</v>
+        <v>11.88098568475872</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.27900621170956</v>
+        <v>28.60437642086448</v>
       </c>
       <c r="C9">
-        <v>11.31955424485019</v>
+        <v>22.08848103562995</v>
       </c>
       <c r="D9">
-        <v>5.024434700817244</v>
+        <v>4.117699764941748</v>
       </c>
       <c r="E9">
-        <v>7.266486242154019</v>
+        <v>34.56982071966006</v>
       </c>
       <c r="F9">
-        <v>40.86478274155921</v>
+        <v>17.88159775875261</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>7.470725312844523</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.4993043602239</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.627479959885283</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.15316957784774</v>
+        <v>12.66397080599586</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.56022010173929</v>
+        <v>31.118861071578</v>
       </c>
       <c r="C10">
-        <v>12.14219728310117</v>
+        <v>23.9850595544914</v>
       </c>
       <c r="D10">
-        <v>4.929467735627973</v>
+        <v>4.356911236975112</v>
       </c>
       <c r="E10">
-        <v>7.383036431786605</v>
+        <v>38.11026944356014</v>
       </c>
       <c r="F10">
-        <v>43.76427945479212</v>
+        <v>19.33673560278329</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.966493971700966</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.26743803990026</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.058838628446431</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.18644848030856</v>
+        <v>13.36966556095143</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.55722377495815</v>
+        <v>32.20530882325553</v>
       </c>
       <c r="C11">
-        <v>12.50475802324667</v>
+        <v>24.80622497516969</v>
       </c>
       <c r="D11">
-        <v>4.887838142733401</v>
+        <v>4.461906843458316</v>
       </c>
       <c r="E11">
-        <v>7.441049139260127</v>
+        <v>39.67114513587598</v>
       </c>
       <c r="F11">
-        <v>45.07993111759598</v>
+        <v>20.13313956232877</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.780080233566886</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.03931748388478</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.256072605449715</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.11763910099549</v>
+        <v>13.93858750703579</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.92917550674572</v>
+        <v>32.60859850803309</v>
       </c>
       <c r="C12">
-        <v>12.64045199016569</v>
+        <v>25.11129447878968</v>
       </c>
       <c r="D12">
-        <v>4.872324658207824</v>
+        <v>4.501105100011032</v>
       </c>
       <c r="E12">
-        <v>7.463780198092371</v>
+        <v>40.25575233027769</v>
       </c>
       <c r="F12">
-        <v>45.57777499831558</v>
+        <v>20.43380502746916</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.71698819706217</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.32716537386226</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.330906811544651</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.47125743790877</v>
+        <v>14.16518547576264</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84931314745506</v>
+        <v>32.52210196782756</v>
       </c>
       <c r="C13">
-        <v>12.61129757718583</v>
+        <v>25.04585250470146</v>
       </c>
       <c r="D13">
-        <v>4.875654154380259</v>
+        <v>4.492688157825421</v>
       </c>
       <c r="E13">
-        <v>7.458849966790448</v>
+        <v>40.13012227721013</v>
       </c>
       <c r="F13">
-        <v>45.47056861708101</v>
+        <v>20.3690902498894</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.730219438835623</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.26536614107834</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.314783257646525</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.39505268014518</v>
+        <v>14.11639571760482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.58793489377494</v>
+        <v>32.23864973756596</v>
       </c>
       <c r="C14">
-        <v>12.51595319799295</v>
+        <v>24.83144063581798</v>
       </c>
       <c r="D14">
-        <v>4.88655665072789</v>
+        <v>4.465143008308939</v>
       </c>
       <c r="E14">
-        <v>7.442903675132502</v>
+        <v>39.71936640373213</v>
       </c>
       <c r="F14">
-        <v>45.12089529050951</v>
+        <v>20.15789320706244</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.774731018517394</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.06308665713837</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.262226275908628</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.14671068078388</v>
+        <v>13.95723552658335</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.42711340186969</v>
+        <v>32.06397312534779</v>
       </c>
       <c r="C15">
-        <v>12.45734629228687</v>
+        <v>24.69934344448685</v>
       </c>
       <c r="D15">
-        <v>4.89326823419838</v>
+        <v>4.44819743908746</v>
       </c>
       <c r="E15">
-        <v>7.433236867846615</v>
+        <v>39.46694677142762</v>
       </c>
       <c r="F15">
-        <v>44.90666807680925</v>
+        <v>20.02841288101449</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.803014989716942</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.93861258873623</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.230052902732181</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.99472806663599</v>
+        <v>13.85970754252524</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.49426583300757</v>
+        <v>31.04671483225414</v>
       </c>
       <c r="C16">
-        <v>12.11827454069525</v>
+        <v>23.93056504312088</v>
       </c>
       <c r="D16">
-        <v>4.932221935033806</v>
+        <v>4.349971515276239</v>
       </c>
       <c r="E16">
-        <v>7.379349386146323</v>
+        <v>38.00731900398095</v>
       </c>
       <c r="F16">
-        <v>43.67823868610245</v>
+        <v>19.28455536651099</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.979649156333748</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.21635917092421</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.045968958659159</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.12572535266143</v>
+        <v>13.34735942988158</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.91173973174644</v>
+        <v>30.40804529604071</v>
       </c>
       <c r="C17">
-        <v>11.9073264651758</v>
+        <v>23.44835168756838</v>
       </c>
       <c r="D17">
-        <v>4.956537098821862</v>
+        <v>4.288724382213379</v>
       </c>
       <c r="E17">
-        <v>7.347600750116569</v>
+        <v>37.099616158155</v>
       </c>
       <c r="F17">
-        <v>42.92382919396621</v>
+        <v>18.86157768798241</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>7.099884904373615</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.76511753665212</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>7.933293649967956</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.59426620837071</v>
+        <v>13.15517980586473</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.57283440578012</v>
+        <v>30.03528767895412</v>
       </c>
       <c r="C18">
-        <v>11.78489106600027</v>
+        <v>23.16707333101833</v>
       </c>
       <c r="D18">
-        <v>4.97066864864021</v>
+        <v>4.253137241660188</v>
       </c>
       <c r="E18">
-        <v>7.329806879050779</v>
+        <v>36.57280651848927</v>
       </c>
       <c r="F18">
-        <v>42.48958463780242</v>
+        <v>18.65262112324666</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>7.17299277730334</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.50250607210738</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>7.868579639438675</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.28916219421037</v>
+        <v>13.04741300427686</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.4574178185218</v>
+        <v>29.90814514650155</v>
       </c>
       <c r="C19">
-        <v>11.74324495610757</v>
+        <v>23.07116112139966</v>
       </c>
       <c r="D19">
-        <v>4.975477780039498</v>
+        <v>4.241026740118365</v>
       </c>
       <c r="E19">
-        <v>7.323861104976875</v>
+        <v>36.39360725039573</v>
       </c>
       <c r="F19">
-        <v>42.34249875077897</v>
+        <v>18.58210645715513</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>7.198387760244956</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.41305686669551</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.84668490154313</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.1859565475624</v>
+        <v>13.01139838796331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.97414745521569</v>
+        <v>30.47659196200954</v>
       </c>
       <c r="C20">
-        <v>11.9298959737979</v>
+        <v>23.50008940701647</v>
       </c>
       <c r="D20">
-        <v>4.953933424982837</v>
+        <v>4.295281538780513</v>
       </c>
       <c r="E20">
-        <v>7.350931791323964</v>
+        <v>37.19672681716239</v>
       </c>
       <c r="F20">
-        <v>43.00417084028243</v>
+        <v>18.90036176098988</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>7.086667753671041</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.81346910895998</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7.945278453128754</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.65078072075686</v>
+        <v>13.17535043213537</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.66485749746672</v>
+        <v>32.32212591483506</v>
       </c>
       <c r="C21">
-        <v>12.54400085882047</v>
+        <v>24.89457756921891</v>
       </c>
       <c r="D21">
-        <v>4.883347291267697</v>
+        <v>4.473248991414881</v>
       </c>
       <c r="E21">
-        <v>7.447566403653004</v>
+        <v>39.84018485614851</v>
       </c>
       <c r="F21">
-        <v>45.22361125562277</v>
+        <v>20.21995086435572</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.761441811255624</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.12261982884068</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.277659491252431</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.21962652852098</v>
+        <v>14.00399238359894</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.73738945969209</v>
+        <v>33.48100437929637</v>
       </c>
       <c r="C22">
-        <v>12.93607893989249</v>
+        <v>25.77169178005646</v>
       </c>
       <c r="D22">
-        <v>4.838692703107657</v>
+        <v>4.586286890941021</v>
       </c>
       <c r="E22">
-        <v>7.515193624554143</v>
+        <v>41.53055470648981</v>
       </c>
       <c r="F22">
-        <v>46.67215103862141</v>
+        <v>21.09348430057691</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.593352635393266</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.95243132029191</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>8.495751934185481</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.25086948136741</v>
+        <v>14.66306490751838</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.16783063635394</v>
+        <v>32.86676879452448</v>
       </c>
       <c r="C23">
-        <v>12.72763729148087</v>
+        <v>25.30665930361904</v>
       </c>
       <c r="D23">
-        <v>4.862380701195768</v>
+        <v>4.526258762113308</v>
       </c>
       <c r="E23">
-        <v>7.478674621412075</v>
+        <v>40.63153357178375</v>
       </c>
       <c r="F23">
-        <v>45.89915317080933</v>
+        <v>20.62770404494188</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.678507290212885</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.51182587975939</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.379268714046654</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.69988179836244</v>
+        <v>14.3114259820371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.94594541244997</v>
+        <v>30.44561939818353</v>
       </c>
       <c r="C24">
-        <v>11.91969591312009</v>
+        <v>23.47671139790835</v>
       </c>
       <c r="D24">
-        <v>4.955110072914555</v>
+        <v>4.292318216497139</v>
       </c>
       <c r="E24">
-        <v>7.349424401732721</v>
+        <v>37.15283858531195</v>
       </c>
       <c r="F24">
-        <v>42.96785002299555</v>
+        <v>18.88282355520222</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>7.09263091960175</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.79161930513208</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>7.939859922527743</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.62522914902436</v>
+        <v>13.16622282607838</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.40122766703582</v>
+        <v>27.62670739100302</v>
       </c>
       <c r="C25">
-        <v>11.00585931635961</v>
+        <v>21.35263195618782</v>
       </c>
       <c r="D25">
-        <v>5.060665291270141</v>
+        <v>4.026319168105911</v>
       </c>
       <c r="E25">
-        <v>7.227715240411403</v>
+        <v>33.21786540331693</v>
       </c>
       <c r="F25">
-        <v>39.79386510487367</v>
+        <v>17.38387218699676</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7.686942684260324</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.81805311044911</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.469588553225058</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.40966603413122</v>
+        <v>12.42968146551249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.36842808081741</v>
+        <v>15.05048780176053</v>
       </c>
       <c r="C2">
-        <v>19.65664177576702</v>
+        <v>11.50101368500164</v>
       </c>
       <c r="D2">
-        <v>3.819341078263467</v>
+        <v>3.627452838550872</v>
       </c>
       <c r="E2">
-        <v>30.1415806845092</v>
+        <v>16.59448567039335</v>
       </c>
       <c r="F2">
-        <v>16.32844048507718</v>
+        <v>19.02170427638955</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>8.21366000391739</v>
+        <v>15.77803083377724</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.97460522680993</v>
+        <v>16.8512498480365</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.72218028133327</v>
+        <v>14.20706712963875</v>
       </c>
       <c r="C3">
-        <v>18.4239640285501</v>
+        <v>10.82536328834251</v>
       </c>
       <c r="D3">
-        <v>3.672593532825415</v>
+        <v>3.574240261778049</v>
       </c>
       <c r="E3">
-        <v>27.93574351891154</v>
+        <v>15.64601514548837</v>
       </c>
       <c r="F3">
-        <v>15.64597745715749</v>
+        <v>19.02300677213631</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>8.612478628125363</v>
+        <v>15.94719198431599</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.71816738688647</v>
+        <v>16.93076996332746</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.65380423190686</v>
+        <v>13.66225859234334</v>
       </c>
       <c r="C4">
-        <v>17.62588665225236</v>
+        <v>10.38656213626149</v>
       </c>
       <c r="D4">
-        <v>3.579499160473567</v>
+        <v>3.541051168541962</v>
       </c>
       <c r="E4">
-        <v>26.51891907388413</v>
+        <v>15.038347417373</v>
       </c>
       <c r="F4">
-        <v>15.24423381952355</v>
+        <v>19.03334216288247</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>8.874641537310564</v>
+        <v>16.05675514797745</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.58523953072986</v>
+        <v>16.98693378145153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.20390660534271</v>
+        <v>13.43362357182914</v>
       </c>
       <c r="C5">
-        <v>17.29030787781309</v>
+        <v>10.20178148734509</v>
       </c>
       <c r="D5">
-        <v>3.540846972788435</v>
+        <v>3.527407687069452</v>
       </c>
       <c r="E5">
-        <v>25.92547915183348</v>
+        <v>14.78462218534459</v>
       </c>
       <c r="F5">
-        <v>15.08504396092518</v>
+        <v>19.03993903451894</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>8.985420420042932</v>
+        <v>16.10283464319667</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.53703679180471</v>
+        <v>17.011649856549</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.12832306201501</v>
+        <v>13.39526417595278</v>
       </c>
       <c r="C6">
-        <v>17.23396046889813</v>
+        <v>10.17074045402317</v>
       </c>
       <c r="D6">
-        <v>3.534386769038521</v>
+        <v>3.525135363012186</v>
       </c>
       <c r="E6">
-        <v>25.82595772713947</v>
+        <v>14.7421319904535</v>
       </c>
       <c r="F6">
-        <v>15.0588888864425</v>
+        <v>19.04117806589743</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>9.004043220822266</v>
+        <v>16.11057254693057</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.52938653887453</v>
+        <v>17.01586391232873</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.64779562081482</v>
+        <v>13.65920172075717</v>
       </c>
       <c r="C7">
-        <v>17.62140282418608</v>
+        <v>10.38409418832189</v>
       </c>
       <c r="D7">
-        <v>3.57898072817291</v>
+        <v>3.540867633260101</v>
       </c>
       <c r="E7">
-        <v>26.51098128820306</v>
+        <v>15.03494987954568</v>
       </c>
       <c r="F7">
-        <v>15.24206838253332</v>
+        <v>19.03342149243547</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>8.876120038075975</v>
+        <v>16.05737079695219</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.58456558603678</v>
+        <v>16.98725972819071</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81271655364124</v>
+        <v>14.76535150714479</v>
       </c>
       <c r="C8">
-        <v>19.24016388192344</v>
+        <v>11.27304942293409</v>
       </c>
       <c r="D8">
-        <v>3.769383538143668</v>
+        <v>3.609218932299791</v>
       </c>
       <c r="E8">
-        <v>29.39373235565155</v>
+        <v>16.27284911097061</v>
       </c>
       <c r="F8">
-        <v>16.08964379093913</v>
+        <v>19.02016752969193</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>8.34731655356949</v>
+        <v>15.83517438231825</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.88098568475872</v>
+        <v>16.87713566352617</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.60437642086448</v>
+        <v>16.71544598605509</v>
       </c>
       <c r="C9">
-        <v>22.08848103562995</v>
+        <v>12.82448042983457</v>
       </c>
       <c r="D9">
-        <v>4.117699764941748</v>
+        <v>3.738683220059439</v>
       </c>
       <c r="E9">
-        <v>34.56982071966006</v>
+        <v>18.60857781505257</v>
       </c>
       <c r="F9">
-        <v>17.88159775875261</v>
+        <v>19.07025629307025</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>7.470725312844523</v>
+        <v>15.44470843078692</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.66397080599586</v>
+        <v>16.72011323027554</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.118861071578</v>
+        <v>18.00929717279027</v>
       </c>
       <c r="C10">
-        <v>23.9850595544914</v>
+        <v>13.84578044727016</v>
       </c>
       <c r="D10">
-        <v>4.356911236975112</v>
+        <v>3.830401932369729</v>
       </c>
       <c r="E10">
-        <v>38.11026944356014</v>
+        <v>20.26597166812811</v>
       </c>
       <c r="F10">
-        <v>19.33673560278329</v>
+        <v>19.15378772040472</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>6.966493971700966</v>
+        <v>15.18550722359725</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.36966556095143</v>
+        <v>16.64159668072431</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.20530882325553</v>
+        <v>18.56700732572864</v>
       </c>
       <c r="C11">
-        <v>24.80622497516969</v>
+        <v>14.28448812996355</v>
       </c>
       <c r="D11">
-        <v>4.461906843458316</v>
+        <v>3.871267465152992</v>
       </c>
       <c r="E11">
-        <v>39.67114513587598</v>
+        <v>20.97755886320545</v>
       </c>
       <c r="F11">
-        <v>20.13313956232877</v>
+        <v>19.20194077485662</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>6.780080233566886</v>
+        <v>15.07362239834789</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.93858750703579</v>
+        <v>16.61406113290711</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.60859850803309</v>
+        <v>18.77371547950815</v>
       </c>
       <c r="C12">
-        <v>25.11129447878968</v>
+        <v>14.44688581814688</v>
       </c>
       <c r="D12">
-        <v>4.501105100011032</v>
+        <v>3.886609214091045</v>
       </c>
       <c r="E12">
-        <v>40.25575233027769</v>
+        <v>21.24096322204026</v>
       </c>
       <c r="F12">
-        <v>20.43380502746916</v>
+        <v>19.22163034460086</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>6.71698819706217</v>
+        <v>15.03212393127967</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.16518547576264</v>
+        <v>16.60482444454607</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.52210196782756</v>
+        <v>18.72939723691359</v>
       </c>
       <c r="C13">
-        <v>25.04585250470146</v>
+        <v>14.41207661595647</v>
       </c>
       <c r="D13">
-        <v>4.492688157825421</v>
+        <v>3.883311166422821</v>
       </c>
       <c r="E13">
-        <v>40.13012227721013</v>
+        <v>21.18450327772759</v>
       </c>
       <c r="F13">
-        <v>20.3690902498894</v>
+        <v>19.21732524687685</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>6.730219438835623</v>
+        <v>15.04102262547547</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.11639571760482</v>
+        <v>16.6067605752739</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.23864973756596</v>
+        <v>18.5841034277223</v>
       </c>
       <c r="C14">
-        <v>24.83144063581798</v>
+        <v>14.2979235020704</v>
       </c>
       <c r="D14">
-        <v>4.465143008308939</v>
+        <v>3.872532362862923</v>
       </c>
       <c r="E14">
-        <v>39.71936640373213</v>
+        <v>20.99935051864087</v>
       </c>
       <c r="F14">
-        <v>20.15789320706244</v>
+        <v>19.20353152746721</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>6.774731018517394</v>
+        <v>15.0701908410748</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.95723552658335</v>
+        <v>16.61327729098467</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.06397312534779</v>
+        <v>18.49452159502535</v>
       </c>
       <c r="C15">
-        <v>24.69934344448685</v>
+        <v>14.22751530486794</v>
       </c>
       <c r="D15">
-        <v>4.44819743908746</v>
+        <v>3.865912412793098</v>
       </c>
       <c r="E15">
-        <v>39.46694677142762</v>
+        <v>20.88515116012722</v>
       </c>
       <c r="F15">
-        <v>20.02841288101449</v>
+        <v>19.19527175751346</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>6.803014989716942</v>
+        <v>15.08817060131386</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.85970754252524</v>
+        <v>16.61742439175776</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.04671483225414</v>
+        <v>17.97222416279133</v>
       </c>
       <c r="C16">
-        <v>23.93056504312088</v>
+        <v>13.81658808603135</v>
       </c>
       <c r="D16">
-        <v>4.349971515276239</v>
+        <v>3.82771316521258</v>
       </c>
       <c r="E16">
-        <v>38.00731900398095</v>
+        <v>20.21861813496901</v>
       </c>
       <c r="F16">
-        <v>19.28455536651099</v>
+        <v>19.15084477423367</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>6.979649156333748</v>
+        <v>15.19294070623337</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.34735942988158</v>
+        <v>16.64356204246265</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.40804529604071</v>
+        <v>17.64386893414432</v>
       </c>
       <c r="C17">
-        <v>23.44835168756838</v>
+        <v>13.55785937866145</v>
       </c>
       <c r="D17">
-        <v>4.288724382213379</v>
+        <v>3.804052352086922</v>
       </c>
       <c r="E17">
-        <v>37.099616158155</v>
+        <v>19.79889441212995</v>
       </c>
       <c r="F17">
-        <v>18.86157768798241</v>
+        <v>19.12618843560828</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>7.099884904373615</v>
+        <v>15.25875962396454</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.15517980586473</v>
+        <v>16.66170240610372</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.03528767895412</v>
+        <v>17.45210401644001</v>
       </c>
       <c r="C18">
-        <v>23.16707333101833</v>
+        <v>13.40660905857839</v>
       </c>
       <c r="D18">
-        <v>4.253137241660188</v>
+        <v>3.790363097650111</v>
       </c>
       <c r="E18">
-        <v>36.57280651848927</v>
+        <v>19.55349035728542</v>
       </c>
       <c r="F18">
-        <v>18.65262112324666</v>
+        <v>19.11296304517519</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>7.17299277730334</v>
+        <v>15.29718401207258</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.04741300427686</v>
+        <v>16.67290562093229</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.90814514650155</v>
+        <v>17.3866785885234</v>
       </c>
       <c r="C19">
-        <v>23.07116112139966</v>
+        <v>13.35498019618174</v>
       </c>
       <c r="D19">
-        <v>4.241026740118365</v>
+        <v>3.785714686303463</v>
       </c>
       <c r="E19">
-        <v>36.39360725039573</v>
+        <v>19.4697144103139</v>
       </c>
       <c r="F19">
-        <v>18.58210645715513</v>
+        <v>19.10864949766634</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>7.198387760244956</v>
+        <v>15.31029115561299</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.01139838796331</v>
+        <v>16.67683053756916</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.47659196200954</v>
+        <v>17.67912379592172</v>
       </c>
       <c r="C20">
-        <v>23.50008940701647</v>
+        <v>13.58565373029128</v>
       </c>
       <c r="D20">
-        <v>4.295281538780513</v>
+        <v>3.806579456878181</v>
       </c>
       <c r="E20">
-        <v>37.19672681716239</v>
+        <v>19.84398742526866</v>
       </c>
       <c r="F20">
-        <v>18.90036176098988</v>
+        <v>19.12871419968848</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>7.086667753671041</v>
+        <v>15.25169437456008</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.17535043213537</v>
+        <v>16.65969160476427</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32212591483506</v>
+        <v>18.62690175775741</v>
       </c>
       <c r="C21">
-        <v>24.89457756921891</v>
+        <v>14.33155435474239</v>
       </c>
       <c r="D21">
-        <v>4.473248991414881</v>
+        <v>3.875702047906167</v>
       </c>
       <c r="E21">
-        <v>39.84018485614851</v>
+        <v>21.05389851854794</v>
       </c>
       <c r="F21">
-        <v>20.21995086435572</v>
+        <v>19.20754364497656</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>6.761441811255624</v>
+        <v>15.06159979336352</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.00399238359894</v>
+        <v>16.61133075990861</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.48100437929637</v>
+        <v>19.22017648461896</v>
       </c>
       <c r="C22">
-        <v>25.77169178005646</v>
+        <v>14.79729320260919</v>
       </c>
       <c r="D22">
-        <v>4.586286890941021</v>
+        <v>3.920097397021088</v>
       </c>
       <c r="E22">
-        <v>41.53055470648981</v>
+        <v>21.80934895646643</v>
       </c>
       <c r="F22">
-        <v>21.09348430057691</v>
+        <v>19.26753966070871</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>6.593352635393266</v>
+        <v>14.94243410607024</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.66306490751838</v>
+        <v>16.58666862874338</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.86676879452448</v>
+        <v>18.90593976499226</v>
       </c>
       <c r="C23">
-        <v>25.30665930361904</v>
+        <v>14.55071151239328</v>
       </c>
       <c r="D23">
-        <v>4.526258762113308</v>
+        <v>3.896477271721762</v>
       </c>
       <c r="E23">
-        <v>40.63153357178375</v>
+        <v>21.40936914539612</v>
       </c>
       <c r="F23">
-        <v>20.62770404494188</v>
+        <v>19.23474562453683</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>6.678507290212885</v>
+        <v>15.00556982922822</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.3114259820371</v>
+        <v>16.59919151526063</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.44561939818353</v>
+        <v>17.66319437979707</v>
       </c>
       <c r="C24">
-        <v>23.47671139790835</v>
+        <v>13.57309570185001</v>
       </c>
       <c r="D24">
-        <v>4.292318216497139</v>
+        <v>3.805437220963207</v>
       </c>
       <c r="E24">
-        <v>37.15283858531195</v>
+        <v>19.82361364538989</v>
       </c>
       <c r="F24">
-        <v>18.88282355520222</v>
+        <v>19.12756934266482</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>7.09263091960175</v>
+        <v>15.25488675424893</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.16622282607838</v>
+        <v>16.66059827792072</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62670739100302</v>
+        <v>16.21197793584842</v>
       </c>
       <c r="C25">
-        <v>21.35263195618782</v>
+        <v>12.42551268275503</v>
       </c>
       <c r="D25">
-        <v>4.026319168105911</v>
+        <v>3.704213794196838</v>
       </c>
       <c r="E25">
-        <v>33.21786540331693</v>
+        <v>17.96042625348758</v>
       </c>
       <c r="F25">
-        <v>17.38387218699676</v>
+        <v>19.048511898994</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>7.686942684260324</v>
+        <v>15.54548694947148</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.42968146551249</v>
+        <v>16.75618514696082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.05048780176053</v>
+        <v>25.36842808081739</v>
       </c>
       <c r="C2">
-        <v>11.50101368500164</v>
+        <v>19.65664177576702</v>
       </c>
       <c r="D2">
-        <v>3.627452838550872</v>
+        <v>3.819341078263479</v>
       </c>
       <c r="E2">
-        <v>16.59448567039335</v>
+        <v>30.14158068450914</v>
       </c>
       <c r="F2">
-        <v>19.02170427638955</v>
+        <v>16.32844048507724</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>15.77803083377724</v>
+        <v>8.213660003917452</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.8512498480365</v>
+        <v>11.97460522681</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.20706712963875</v>
+        <v>23.72218028133331</v>
       </c>
       <c r="C3">
-        <v>10.82536328834251</v>
+        <v>18.42396402854992</v>
       </c>
       <c r="D3">
-        <v>3.574240261778049</v>
+        <v>3.672593532825443</v>
       </c>
       <c r="E3">
-        <v>15.64601514548837</v>
+        <v>27.93574351891152</v>
       </c>
       <c r="F3">
-        <v>19.02300677213631</v>
+        <v>15.6459774571575</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>15.94719198431599</v>
+        <v>8.612478628125213</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.93076996332746</v>
+        <v>11.71816738688644</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.66225859234334</v>
+        <v>22.6538042319069</v>
       </c>
       <c r="C4">
-        <v>10.38656213626149</v>
+        <v>17.62588665225233</v>
       </c>
       <c r="D4">
-        <v>3.541051168541962</v>
+        <v>3.579499160473468</v>
       </c>
       <c r="E4">
-        <v>15.038347417373</v>
+        <v>26.51891907388416</v>
       </c>
       <c r="F4">
-        <v>19.03334216288247</v>
+        <v>15.2442338195236</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>16.05675514797745</v>
+        <v>8.874641537310525</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.98693378145153</v>
+        <v>11.58523953072988</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.43362357182914</v>
+        <v>22.20390660534275</v>
       </c>
       <c r="C5">
-        <v>10.20178148734509</v>
+        <v>17.29030787781304</v>
       </c>
       <c r="D5">
-        <v>3.527407687069452</v>
+        <v>3.540846972788504</v>
       </c>
       <c r="E5">
-        <v>14.78462218534459</v>
+        <v>25.92547915183355</v>
       </c>
       <c r="F5">
-        <v>19.03993903451894</v>
+        <v>15.08504396092506</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>16.10283464319667</v>
+        <v>8.985420420042729</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.011649856549</v>
+        <v>11.5370367918046</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.39526417595278</v>
+        <v>22.12832306201501</v>
       </c>
       <c r="C6">
-        <v>10.17074045402317</v>
+        <v>17.23396046889815</v>
       </c>
       <c r="D6">
-        <v>3.525135363012186</v>
+        <v>3.534386769038485</v>
       </c>
       <c r="E6">
-        <v>14.7421319904535</v>
+        <v>25.82595772713955</v>
       </c>
       <c r="F6">
-        <v>19.04117806589743</v>
+        <v>15.05888888644248</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>16.11057254693057</v>
+        <v>9.004043220822254</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.01586391232873</v>
+        <v>11.52938653887453</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.65920172075717</v>
+        <v>22.64779562081477</v>
       </c>
       <c r="C7">
-        <v>10.38409418832189</v>
+        <v>17.621402824186</v>
       </c>
       <c r="D7">
-        <v>3.540867633260101</v>
+        <v>3.578980728172748</v>
       </c>
       <c r="E7">
-        <v>15.03494987954568</v>
+        <v>26.51098128820313</v>
       </c>
       <c r="F7">
-        <v>19.03342149243547</v>
+        <v>15.24206838253349</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>16.05737079695219</v>
+        <v>8.876120038076062</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.98725972819071</v>
+        <v>11.58456558603686</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.76535150714479</v>
+        <v>24.81271655364118</v>
       </c>
       <c r="C8">
-        <v>11.27304942293409</v>
+        <v>19.24016388192342</v>
       </c>
       <c r="D8">
-        <v>3.609218932299791</v>
+        <v>3.769383538143801</v>
       </c>
       <c r="E8">
-        <v>16.27284911097061</v>
+        <v>29.39373235565145</v>
       </c>
       <c r="F8">
-        <v>19.02016752969193</v>
+        <v>16.08964379093925</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>15.83517438231825</v>
+        <v>8.34731655356968</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.87713566352617</v>
+        <v>11.88098568475887</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.71544598605509</v>
+        <v>28.6043764208645</v>
       </c>
       <c r="C9">
-        <v>12.82448042983457</v>
+        <v>22.08848103563007</v>
       </c>
       <c r="D9">
-        <v>3.738683220059439</v>
+        <v>4.117699764941804</v>
       </c>
       <c r="E9">
-        <v>18.60857781505257</v>
+        <v>34.56982071966004</v>
       </c>
       <c r="F9">
-        <v>19.07025629307025</v>
+        <v>17.88159775875257</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>15.44470843078692</v>
+        <v>7.470725312844505</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.72011323027554</v>
+        <v>12.66397080599579</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.00929717279027</v>
+        <v>31.118861071578</v>
       </c>
       <c r="C10">
-        <v>13.84578044727016</v>
+        <v>23.98505955449132</v>
       </c>
       <c r="D10">
-        <v>3.830401932369729</v>
+        <v>4.356911236975122</v>
       </c>
       <c r="E10">
-        <v>20.26597166812811</v>
+        <v>38.11026944356021</v>
       </c>
       <c r="F10">
-        <v>19.15378772040472</v>
+        <v>19.3367356027833</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>15.18550722359725</v>
+        <v>6.966493971700903</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.64159668072431</v>
+        <v>13.36966556095141</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.56700732572864</v>
+        <v>32.20530882325558</v>
       </c>
       <c r="C11">
-        <v>14.28448812996355</v>
+        <v>24.80622497516971</v>
       </c>
       <c r="D11">
-        <v>3.871267465152992</v>
+        <v>4.461906843458261</v>
       </c>
       <c r="E11">
-        <v>20.97755886320545</v>
+        <v>39.671145135876</v>
       </c>
       <c r="F11">
-        <v>19.20194077485662</v>
+        <v>20.13313956232886</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>15.07362239834789</v>
+        <v>6.780080233566885</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.61406113290711</v>
+        <v>13.93858750703589</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.77371547950815</v>
+        <v>32.60859850803307</v>
       </c>
       <c r="C12">
-        <v>14.44688581814688</v>
+        <v>25.11129447878966</v>
       </c>
       <c r="D12">
-        <v>3.886609214091045</v>
+        <v>4.501105100011024</v>
       </c>
       <c r="E12">
-        <v>21.24096322204026</v>
+        <v>40.25575233027769</v>
       </c>
       <c r="F12">
-        <v>19.22163034460086</v>
+        <v>20.43380502746915</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>15.03212393127967</v>
+        <v>6.716988197062223</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.60482444454607</v>
+        <v>14.16518547576263</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.72939723691359</v>
+        <v>32.52210196782757</v>
       </c>
       <c r="C13">
-        <v>14.41207661595647</v>
+        <v>25.0458525047014</v>
       </c>
       <c r="D13">
-        <v>3.883311166422821</v>
+        <v>4.49268815782553</v>
       </c>
       <c r="E13">
-        <v>21.18450327772759</v>
+        <v>40.13012227721009</v>
       </c>
       <c r="F13">
-        <v>19.21732524687685</v>
+        <v>20.36909024988943</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>15.04102262547547</v>
+        <v>6.730219438835626</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.6067605752739</v>
+        <v>14.11639571760482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.5841034277223</v>
+        <v>32.23864973756599</v>
       </c>
       <c r="C14">
-        <v>14.2979235020704</v>
+        <v>24.83144063581804</v>
       </c>
       <c r="D14">
-        <v>3.872532362862923</v>
+        <v>4.465143008309023</v>
       </c>
       <c r="E14">
-        <v>20.99935051864087</v>
+        <v>39.71936640373214</v>
       </c>
       <c r="F14">
-        <v>19.20353152746721</v>
+        <v>20.15789320706254</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>15.0701908410748</v>
+        <v>6.774731018517303</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.61327729098467</v>
+        <v>13.95723552658344</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.49452159502535</v>
+        <v>32.06397312534779</v>
       </c>
       <c r="C15">
-        <v>14.22751530486794</v>
+        <v>24.69934344448675</v>
       </c>
       <c r="D15">
-        <v>3.865912412793098</v>
+        <v>4.4481974390875</v>
       </c>
       <c r="E15">
-        <v>20.88515116012722</v>
+        <v>39.46694677142765</v>
       </c>
       <c r="F15">
-        <v>19.19527175751346</v>
+        <v>20.02841288101456</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>15.08817060131386</v>
+        <v>6.803014989716882</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.61742439175776</v>
+        <v>13.85970754252529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.97222416279133</v>
+        <v>31.04671483225414</v>
       </c>
       <c r="C16">
-        <v>13.81658808603135</v>
+        <v>23.93056504312099</v>
       </c>
       <c r="D16">
-        <v>3.82771316521258</v>
+        <v>4.349971515276304</v>
       </c>
       <c r="E16">
-        <v>20.21861813496901</v>
+        <v>38.007319003981</v>
       </c>
       <c r="F16">
-        <v>19.15084477423367</v>
+        <v>19.28455536651108</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>15.19294070623337</v>
+        <v>6.979649156333842</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.64356204246265</v>
+        <v>13.34735942988163</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.64386893414432</v>
+        <v>30.4080452960407</v>
       </c>
       <c r="C17">
-        <v>13.55785937866145</v>
+        <v>23.44835168756837</v>
       </c>
       <c r="D17">
-        <v>3.804052352086922</v>
+        <v>4.288724382213379</v>
       </c>
       <c r="E17">
-        <v>19.79889441212995</v>
+        <v>37.09961615815497</v>
       </c>
       <c r="F17">
-        <v>19.12618843560828</v>
+        <v>18.86157768798246</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>15.25875962396454</v>
+        <v>7.099884904373686</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.66170240610372</v>
+        <v>13.1551798058648</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.45210401644001</v>
+        <v>30.03528767895412</v>
       </c>
       <c r="C18">
-        <v>13.40660905857839</v>
+        <v>23.16707333101838</v>
       </c>
       <c r="D18">
-        <v>3.790363097650111</v>
+        <v>4.253137241660166</v>
       </c>
       <c r="E18">
-        <v>19.55349035728542</v>
+        <v>36.57280651848934</v>
       </c>
       <c r="F18">
-        <v>19.11296304517519</v>
+        <v>18.65262112324669</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>15.29718401207258</v>
+        <v>7.172992777303342</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.67290562093229</v>
+        <v>13.04741300427689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.3866785885234</v>
+        <v>29.9081451465016</v>
       </c>
       <c r="C19">
-        <v>13.35498019618174</v>
+        <v>23.07116112139961</v>
       </c>
       <c r="D19">
-        <v>3.785714686303463</v>
+        <v>4.241026740118365</v>
       </c>
       <c r="E19">
-        <v>19.4697144103139</v>
+        <v>36.39360725039585</v>
       </c>
       <c r="F19">
-        <v>19.10864949766634</v>
+        <v>18.58210645715514</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>15.31029115561299</v>
+        <v>7.198387760244911</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.67683053756916</v>
+        <v>13.01139838796331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.67912379592172</v>
+        <v>30.47659196200951</v>
       </c>
       <c r="C20">
-        <v>13.58565373029128</v>
+        <v>23.50008940701658</v>
       </c>
       <c r="D20">
-        <v>3.806579456878181</v>
+        <v>4.29528153878058</v>
       </c>
       <c r="E20">
-        <v>19.84398742526866</v>
+        <v>37.19672681716235</v>
       </c>
       <c r="F20">
-        <v>19.12871419968848</v>
+        <v>18.9003617609899</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>15.25169437456008</v>
+        <v>7.08666775367115</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.65969160476427</v>
+        <v>13.17535043213541</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.62690175775741</v>
+        <v>32.32212591483508</v>
       </c>
       <c r="C21">
-        <v>14.33155435474239</v>
+        <v>24.89457756921896</v>
       </c>
       <c r="D21">
-        <v>3.875702047906167</v>
+        <v>4.473248991414904</v>
       </c>
       <c r="E21">
-        <v>21.05389851854794</v>
+        <v>39.84018485614851</v>
       </c>
       <c r="F21">
-        <v>19.20754364497656</v>
+        <v>20.21995086435571</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>15.06159979336352</v>
+        <v>6.761441811255707</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.61133075990861</v>
+        <v>14.00399238359894</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.22017648461896</v>
+        <v>33.48100437929636</v>
       </c>
       <c r="C22">
-        <v>14.79729320260919</v>
+        <v>25.7716917800564</v>
       </c>
       <c r="D22">
-        <v>3.920097397021088</v>
+        <v>4.586286890941029</v>
       </c>
       <c r="E22">
-        <v>21.80934895646643</v>
+        <v>41.53055470648986</v>
       </c>
       <c r="F22">
-        <v>19.26753966070871</v>
+        <v>21.09348430057694</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>14.94243410607024</v>
+        <v>6.593352635393441</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.58666862874338</v>
+        <v>14.66306490751836</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.90593976499226</v>
+        <v>32.86676879452438</v>
       </c>
       <c r="C23">
-        <v>14.55071151239328</v>
+        <v>25.30665930361903</v>
       </c>
       <c r="D23">
-        <v>3.896477271721762</v>
+        <v>4.526258762113362</v>
       </c>
       <c r="E23">
-        <v>21.40936914539612</v>
+        <v>40.63153357178377</v>
       </c>
       <c r="F23">
-        <v>19.23474562453683</v>
+        <v>20.62770404494185</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>15.00556982922822</v>
+        <v>6.678507290213037</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.59919151526063</v>
+        <v>14.31142598203707</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.66319437979707</v>
+        <v>30.44561939818354</v>
       </c>
       <c r="C24">
-        <v>13.57309570185001</v>
+        <v>23.47671139790829</v>
       </c>
       <c r="D24">
-        <v>3.805437220963207</v>
+        <v>4.292318216497152</v>
       </c>
       <c r="E24">
-        <v>19.82361364538989</v>
+        <v>37.152838585312</v>
       </c>
       <c r="F24">
-        <v>19.12756934266482</v>
+        <v>18.88282355520226</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>15.25488675424893</v>
+        <v>7.092630919601822</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.66059827792072</v>
+        <v>13.16622282607845</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.21197793584842</v>
+        <v>27.62670739100296</v>
       </c>
       <c r="C25">
-        <v>12.42551268275503</v>
+        <v>21.35263195618773</v>
       </c>
       <c r="D25">
-        <v>3.704213794196838</v>
+        <v>4.026319168105942</v>
       </c>
       <c r="E25">
-        <v>17.96042625348758</v>
+        <v>33.21786540331698</v>
       </c>
       <c r="F25">
-        <v>19.048511898994</v>
+        <v>17.38387218699687</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>15.54548694947148</v>
+        <v>7.686942684260512</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.75618514696082</v>
+        <v>12.42968146551259</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.36842808081739</v>
+        <v>13.9558878791478</v>
       </c>
       <c r="C2">
-        <v>19.65664177576702</v>
+        <v>7.982911408484468</v>
       </c>
       <c r="D2">
-        <v>3.819341078263479</v>
+        <v>5.490139739796064</v>
       </c>
       <c r="E2">
-        <v>30.14158068450914</v>
+        <v>8.525635757612562</v>
       </c>
       <c r="F2">
-        <v>16.32844048507724</v>
+        <v>20.1632630203056</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.447508121991095</v>
       </c>
       <c r="I2">
-        <v>8.213660003917452</v>
+        <v>3.379899214082251</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.68930372403294</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.71074549739153</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.191535934390076</v>
       </c>
       <c r="O2">
-        <v>11.97460522681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>16.79327773505022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.72218028133331</v>
+        <v>13.04831728994295</v>
       </c>
       <c r="C3">
-        <v>18.42396402854992</v>
+        <v>7.772678189131198</v>
       </c>
       <c r="D3">
-        <v>3.672593532825443</v>
+        <v>5.324611558797248</v>
       </c>
       <c r="E3">
-        <v>27.93574351891152</v>
+        <v>8.266968881187269</v>
       </c>
       <c r="F3">
-        <v>15.6459774571575</v>
+        <v>19.87641960589974</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.638336940353901</v>
       </c>
       <c r="I3">
-        <v>8.612478628125213</v>
+        <v>3.5334237606482</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.72201839423891</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.07779503171976</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.910088876498774</v>
       </c>
       <c r="O3">
-        <v>11.71816738688644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16.75162335338362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.6538042319069</v>
+        <v>12.45640496862506</v>
       </c>
       <c r="C4">
-        <v>17.62588665225233</v>
+        <v>7.64075796302071</v>
       </c>
       <c r="D4">
-        <v>3.579499160473468</v>
+        <v>5.219896409761584</v>
       </c>
       <c r="E4">
-        <v>26.51891907388416</v>
+        <v>8.102180268516037</v>
       </c>
       <c r="F4">
-        <v>15.2442338195236</v>
+        <v>19.70591057168308</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.759892424208019</v>
       </c>
       <c r="I4">
-        <v>8.874641537310525</v>
+        <v>3.631866532758079</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.74527466034981</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.66991574077103</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.731520332465364</v>
       </c>
       <c r="O4">
-        <v>11.58523953072988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.73128279296888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.20390660534275</v>
+        <v>12.20414772860134</v>
       </c>
       <c r="C5">
-        <v>17.29030787781304</v>
+        <v>7.589898153729066</v>
       </c>
       <c r="D5">
-        <v>3.540846972788504</v>
+        <v>5.177980114665876</v>
       </c>
       <c r="E5">
-        <v>25.92547915183355</v>
+        <v>8.030951175262897</v>
       </c>
       <c r="F5">
-        <v>15.08504396092506</v>
+        <v>19.62881478964233</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.81086480575724</v>
       </c>
       <c r="I5">
-        <v>8.985420420042729</v>
+        <v>3.675628454133226</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.74890659621022</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.5005680198082</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.657942872081786</v>
       </c>
       <c r="O5">
-        <v>11.5370367918046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.71770084767143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.12832306201501</v>
+        <v>12.15890538201922</v>
       </c>
       <c r="C6">
-        <v>17.23396046889815</v>
+        <v>7.585852073408121</v>
       </c>
       <c r="D6">
-        <v>3.534386769038485</v>
+        <v>5.172818914536484</v>
       </c>
       <c r="E6">
-        <v>25.82595772713955</v>
+        <v>8.015827161930899</v>
       </c>
       <c r="F6">
-        <v>15.05888888644248</v>
+        <v>19.60501880217341</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.819787707111642</v>
       </c>
       <c r="I6">
-        <v>9.004043220822254</v>
+        <v>3.686272888009654</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.74146638105443</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.47415261181969</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.646340150000672</v>
       </c>
       <c r="O6">
-        <v>11.52938653887453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.70748149284695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.64779562081477</v>
+        <v>12.4455007062586</v>
       </c>
       <c r="C7">
-        <v>17.621402824186</v>
+        <v>7.652144919640637</v>
       </c>
       <c r="D7">
-        <v>3.578980728172748</v>
+        <v>5.224345969400744</v>
       </c>
       <c r="E7">
-        <v>26.51098128820313</v>
+        <v>8.092563703298545</v>
       </c>
       <c r="F7">
-        <v>15.24206838253349</v>
+        <v>19.67476768772372</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.76162321421535</v>
       </c>
       <c r="I7">
-        <v>8.876120038076062</v>
+        <v>3.641219585205666</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.7232654616437</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.67299630093904</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.732414799037384</v>
       </c>
       <c r="O7">
-        <v>11.58456558603686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.70919562119049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81271655364118</v>
+        <v>13.64092789364694</v>
       </c>
       <c r="C8">
-        <v>19.24016388192342</v>
+        <v>7.926778140638318</v>
       </c>
       <c r="D8">
-        <v>3.769383538143801</v>
+        <v>5.440241372548389</v>
       </c>
       <c r="E8">
-        <v>29.39373235565145</v>
+        <v>8.426733274783388</v>
       </c>
       <c r="F8">
-        <v>16.08964379093925</v>
+        <v>20.02425450145333</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.513702947965622</v>
       </c>
       <c r="I8">
-        <v>8.34731655356968</v>
+        <v>3.443140270145829</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.67095020481916</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.50322767333994</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.098131215890145</v>
       </c>
       <c r="O8">
-        <v>11.88098568475887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16.7491514455785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.6043764208645</v>
+        <v>15.7232743596923</v>
       </c>
       <c r="C9">
-        <v>22.08848103563007</v>
+        <v>8.42154332292135</v>
       </c>
       <c r="D9">
-        <v>4.117699764941804</v>
+        <v>5.829368224250032</v>
       </c>
       <c r="E9">
-        <v>34.56982071966004</v>
+        <v>9.047399256286717</v>
       </c>
       <c r="F9">
-        <v>17.88159775875257</v>
+        <v>20.80464520843036</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.059968452232107</v>
       </c>
       <c r="I9">
-        <v>7.470725312844505</v>
+        <v>3.073063313233861</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.63356215113118</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.96713798685943</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.7637319548642</v>
       </c>
       <c r="O9">
-        <v>12.66397080599579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>16.90912560872697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.118861071578</v>
+        <v>17.06410612677015</v>
       </c>
       <c r="C10">
-        <v>23.98505955449132</v>
+        <v>8.817130717610011</v>
       </c>
       <c r="D10">
-        <v>4.356911236975122</v>
+        <v>6.124280269763389</v>
       </c>
       <c r="E10">
-        <v>38.11026944356021</v>
+        <v>9.304040556729776</v>
       </c>
       <c r="F10">
-        <v>19.3367356027833</v>
+        <v>21.25465066203774</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.779689551162755</v>
       </c>
       <c r="I10">
-        <v>6.966493971700903</v>
+        <v>2.831615233861974</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.5166031202781</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.96199574817906</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.089030507322327</v>
       </c>
       <c r="O10">
-        <v>13.36966556095141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.94357260230095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.20530882325558</v>
+        <v>17.45237407560818</v>
       </c>
       <c r="C11">
-        <v>24.80622497516971</v>
+        <v>9.403211123232937</v>
       </c>
       <c r="D11">
-        <v>4.461906843458261</v>
+        <v>6.472133347120125</v>
       </c>
       <c r="E11">
-        <v>39.671145135876</v>
+        <v>8.119016055576168</v>
       </c>
       <c r="F11">
-        <v>20.13313956232886</v>
+        <v>20.27193928225894</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.78949082196081</v>
       </c>
       <c r="I11">
-        <v>6.780080233566885</v>
+        <v>2.786735977196116</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.62396390891334</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.52497734232237</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.124849297277773</v>
       </c>
       <c r="O11">
-        <v>13.93858750703589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.06690036990389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.60859850803307</v>
+        <v>17.51666559076731</v>
       </c>
       <c r="C12">
-        <v>25.11129447878966</v>
+        <v>9.847105639628483</v>
       </c>
       <c r="D12">
-        <v>4.501105100011024</v>
+        <v>6.708065798823623</v>
       </c>
       <c r="E12">
-        <v>40.25575233027769</v>
+        <v>7.286674635451468</v>
       </c>
       <c r="F12">
-        <v>20.43380502746915</v>
+        <v>19.37661657788957</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.17327625570356</v>
       </c>
       <c r="I12">
-        <v>6.716988197062223</v>
+        <v>2.777579027327547</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.95621238688846</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.79422004915245</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.281062483026438</v>
       </c>
       <c r="O12">
-        <v>14.16518547576263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.35440520064842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.52210196782757</v>
+        <v>17.32924469268278</v>
       </c>
       <c r="C13">
-        <v>25.0458525047014</v>
+        <v>10.22428321121636</v>
       </c>
       <c r="D13">
-        <v>4.49268815782553</v>
+        <v>6.881437106374784</v>
       </c>
       <c r="E13">
-        <v>40.13012227721009</v>
+        <v>6.729138309021296</v>
       </c>
       <c r="F13">
-        <v>20.36909024988943</v>
+        <v>18.4402386237907</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.59828271451476</v>
       </c>
       <c r="I13">
-        <v>6.730219438835626</v>
+        <v>2.810539511532501</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.39476957456261</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.86770842288314</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.489191548411014</v>
       </c>
       <c r="O13">
-        <v>14.11639571760482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.6932537417589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.23864973756599</v>
+        <v>17.07986164788686</v>
       </c>
       <c r="C14">
-        <v>24.83144063581804</v>
+        <v>10.46840887685234</v>
       </c>
       <c r="D14">
-        <v>4.465143008309023</v>
+        <v>6.977831263234124</v>
       </c>
       <c r="E14">
-        <v>39.71936640373214</v>
+        <v>6.541028585575917</v>
       </c>
       <c r="F14">
-        <v>20.15789320706254</v>
+        <v>17.75776661717211</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.607739483562887</v>
       </c>
       <c r="I14">
-        <v>6.774731018517303</v>
+        <v>2.85543139461986</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.05707970899888</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.83304749183949</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.984790885659336</v>
       </c>
       <c r="O14">
-        <v>13.95723552658344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.25474219452681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.06397312534779</v>
+        <v>16.96183042039377</v>
       </c>
       <c r="C15">
-        <v>24.69934344448675</v>
+        <v>10.51520159720922</v>
       </c>
       <c r="D15">
-        <v>4.4481974390875</v>
+        <v>6.988998637285492</v>
       </c>
       <c r="E15">
-        <v>39.46694677142765</v>
+        <v>6.522202840140201</v>
       </c>
       <c r="F15">
-        <v>20.02841288101456</v>
+        <v>17.57474514176641</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.842896211477088</v>
       </c>
       <c r="I15">
-        <v>6.803014989716882</v>
+        <v>2.880380344281559</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.98935893184753</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.78395958149369</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.869567511240152</v>
       </c>
       <c r="O15">
-        <v>13.85970754252529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.152979996929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.04671483225414</v>
+        <v>16.43479858719326</v>
       </c>
       <c r="C16">
-        <v>23.93056504312099</v>
+        <v>10.29145587476494</v>
       </c>
       <c r="D16">
-        <v>4.349971515276304</v>
+        <v>6.839395376002258</v>
       </c>
       <c r="E16">
-        <v>38.007319003981</v>
+        <v>6.496092828124944</v>
       </c>
       <c r="F16">
-        <v>19.28455536651108</v>
+        <v>17.52995045065756</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.645407469066889</v>
       </c>
       <c r="I16">
-        <v>6.979649156333842</v>
+        <v>2.98256217523029</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.14913241180813</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.36958694560004</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.860256732366686</v>
       </c>
       <c r="O16">
-        <v>13.34735942988163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.25995662608546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.4080452960407</v>
+        <v>16.1605639153341</v>
       </c>
       <c r="C17">
-        <v>23.44835168756837</v>
+        <v>9.980932306355715</v>
       </c>
       <c r="D17">
-        <v>4.288724382213379</v>
+        <v>6.669783046244227</v>
       </c>
       <c r="E17">
-        <v>37.09961615815497</v>
+        <v>6.538736574763143</v>
       </c>
       <c r="F17">
-        <v>18.86157768798246</v>
+        <v>17.86325730883209</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.927511997940458</v>
       </c>
       <c r="I17">
-        <v>7.099884904373686</v>
+        <v>3.037971854905012</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.44297378883505</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.06434430124671</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.111678620356877</v>
       </c>
       <c r="O17">
-        <v>13.1551798058648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.57145794760761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.03528767895412</v>
+        <v>16.08661033734478</v>
       </c>
       <c r="C18">
-        <v>23.16707333101838</v>
+        <v>9.56481064087904</v>
       </c>
       <c r="D18">
-        <v>4.253137241660166</v>
+        <v>6.463983256973173</v>
       </c>
       <c r="E18">
-        <v>36.57280651848934</v>
+        <v>6.842581583630484</v>
       </c>
       <c r="F18">
-        <v>18.65262112324669</v>
+        <v>18.57977990536926</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.709674259456344</v>
       </c>
       <c r="I18">
-        <v>7.172992777303342</v>
+        <v>3.046818106831574</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.92290045551584</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.82087279318514</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.679855174168605</v>
       </c>
       <c r="O18">
-        <v>13.04741300427689</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15.11765136028106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.9081451465016</v>
+        <v>16.16997523211659</v>
       </c>
       <c r="C19">
-        <v>23.07116112139961</v>
+        <v>9.159363313698755</v>
       </c>
       <c r="D19">
-        <v>4.241026740118365</v>
+        <v>6.262000576777289</v>
       </c>
       <c r="E19">
-        <v>36.39360725039585</v>
+        <v>7.568746789854147</v>
       </c>
       <c r="F19">
-        <v>18.58210645715514</v>
+        <v>19.50276854306483</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.28808421132703</v>
       </c>
       <c r="I19">
-        <v>7.198387760244911</v>
+        <v>3.033306097350966</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.522163480566</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.65901622205942</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.525938660154902</v>
       </c>
       <c r="O19">
-        <v>13.01139838796331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.7935787618683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.47659196200951</v>
+        <v>16.7037604333076</v>
       </c>
       <c r="C20">
-        <v>23.50008940701658</v>
+        <v>8.752530540643489</v>
       </c>
       <c r="D20">
-        <v>4.29528153878058</v>
+        <v>6.063767362243025</v>
       </c>
       <c r="E20">
-        <v>37.19672681716235</v>
+        <v>9.207649722446488</v>
       </c>
       <c r="F20">
-        <v>18.9003617609899</v>
+        <v>21.04289265919664</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.853980066600692</v>
       </c>
       <c r="I20">
-        <v>7.08666775367115</v>
+        <v>2.924276319849142</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.47550653515645</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.72192125551088</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.004223855072812</v>
       </c>
       <c r="O20">
-        <v>13.17535043213541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.86294877111121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.32212591483508</v>
+        <v>17.71849509701993</v>
       </c>
       <c r="C21">
-        <v>24.89457756921896</v>
+        <v>8.98071642885993</v>
       </c>
       <c r="D21">
-        <v>4.473248991414904</v>
+        <v>6.244623242188286</v>
       </c>
       <c r="E21">
-        <v>39.84018485614851</v>
+        <v>9.653631733187902</v>
       </c>
       <c r="F21">
-        <v>20.21995086435571</v>
+        <v>21.62174155605453</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>1.595550289536471</v>
       </c>
       <c r="I21">
-        <v>6.761441811255707</v>
+        <v>2.731405774087157</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.55510634970943</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.42823939075973</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.447169435298175</v>
       </c>
       <c r="O21">
-        <v>14.00399238359894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.06977649881504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.48100437929636</v>
+        <v>18.34822033756747</v>
       </c>
       <c r="C22">
-        <v>25.7716917800564</v>
+        <v>9.133911734291127</v>
       </c>
       <c r="D22">
-        <v>4.586286890941029</v>
+        <v>6.365766384474216</v>
       </c>
       <c r="E22">
-        <v>41.53055470648986</v>
+        <v>9.863832810524668</v>
       </c>
       <c r="F22">
-        <v>21.09348430057694</v>
+        <v>21.9694341241031</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>1.673985889070574</v>
       </c>
       <c r="I22">
-        <v>6.593352635393441</v>
+        <v>2.598765251976356</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.58928784296037</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.87399793142225</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.660007398742559</v>
       </c>
       <c r="O22">
-        <v>14.66306490751836</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.18569851671479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.86676879452438</v>
+        <v>18.02126376426422</v>
       </c>
       <c r="C23">
-        <v>25.30665930361903</v>
+        <v>9.039059191532523</v>
       </c>
       <c r="D23">
-        <v>4.526258762113362</v>
+        <v>6.296045586389035</v>
       </c>
       <c r="E23">
-        <v>40.63153357178377</v>
+        <v>9.760665101099859</v>
       </c>
       <c r="F23">
-        <v>20.62770404494185</v>
+        <v>21.81512804860338</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.596444601494398</v>
       </c>
       <c r="I23">
-        <v>6.678507290213037</v>
+        <v>2.657054662324104</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.59576224682685</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.63280770104922</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.545144638643901</v>
       </c>
       <c r="O23">
-        <v>14.31142598203707</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.14762789339684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.44561939818354</v>
+        <v>16.71407074708916</v>
       </c>
       <c r="C24">
-        <v>23.47671139790829</v>
+        <v>8.695327161512747</v>
       </c>
       <c r="D24">
-        <v>4.292318216497152</v>
+        <v>6.033553610599705</v>
       </c>
       <c r="E24">
-        <v>37.152838585312</v>
+        <v>9.34438651276265</v>
       </c>
       <c r="F24">
-        <v>18.88282355520226</v>
+        <v>21.18943030754762</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.832818528275694</v>
       </c>
       <c r="I24">
-        <v>7.092630919601822</v>
+        <v>2.904486585459117</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.58898477179095</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.69060070574092</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.099844160821526</v>
       </c>
       <c r="O24">
-        <v>13.16622282607845</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.97753661776824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62670739100296</v>
+        <v>15.17772723124808</v>
       </c>
       <c r="C25">
-        <v>21.35263195618773</v>
+        <v>8.311321293983719</v>
       </c>
       <c r="D25">
-        <v>4.026319168105942</v>
+        <v>5.73563064449977</v>
       </c>
       <c r="E25">
-        <v>33.21786540331698</v>
+        <v>8.870870775256705</v>
       </c>
       <c r="F25">
-        <v>17.38387218699687</v>
+        <v>20.5377763493733</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.180784700580173</v>
       </c>
       <c r="I25">
-        <v>7.686942684260512</v>
+        <v>3.185898615080863</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.6016339090257</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.59651216942211</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.592305252893065</v>
       </c>
       <c r="O25">
-        <v>12.42968146551259</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.8225650254543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.9558878791478</v>
+        <v>13.90236044099483</v>
       </c>
       <c r="C2">
-        <v>7.982911408484468</v>
+        <v>7.855441700126731</v>
       </c>
       <c r="D2">
-        <v>5.490139739796064</v>
+        <v>5.523464417260603</v>
       </c>
       <c r="E2">
-        <v>8.525635757612562</v>
+        <v>8.3535067771244</v>
       </c>
       <c r="F2">
-        <v>20.1632630203056</v>
+        <v>19.3115682219589</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.447508121991095</v>
+        <v>2.310226735226914</v>
       </c>
       <c r="I2">
-        <v>3.379899214082251</v>
+        <v>3.212433041998882</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>16.68930372403294</v>
+        <v>15.8597292479626</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.90303233551878</v>
       </c>
       <c r="M2">
-        <v>11.71074549739153</v>
+        <v>10.55309517233175</v>
       </c>
       <c r="N2">
-        <v>7.191535934390076</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.85080598176531</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.326567084887092</v>
       </c>
       <c r="Q2">
-        <v>16.79327773505022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.08617030224573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.04831728994295</v>
+        <v>13.02186994151001</v>
       </c>
       <c r="C3">
-        <v>7.772678189131198</v>
+        <v>7.564451853857511</v>
       </c>
       <c r="D3">
-        <v>5.324611558797248</v>
+        <v>5.332911721666923</v>
       </c>
       <c r="E3">
-        <v>8.266968881187269</v>
+        <v>8.120957153800429</v>
       </c>
       <c r="F3">
-        <v>19.87641960589974</v>
+        <v>19.1024540750985</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.638336940353901</v>
+        <v>2.489268052085315</v>
       </c>
       <c r="I3">
-        <v>3.5334237606482</v>
+        <v>3.350855505459451</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>16.72201839423891</v>
+        <v>15.94468309387798</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.0410593727814</v>
       </c>
       <c r="M3">
-        <v>11.07779503171976</v>
+        <v>10.57212785028318</v>
       </c>
       <c r="N3">
-        <v>6.910088876498774</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.20385308348496</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.047786050156733</v>
       </c>
       <c r="Q3">
-        <v>16.75162335338362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.10188799965315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.45640496862506</v>
+        <v>12.44789348605992</v>
       </c>
       <c r="C4">
-        <v>7.64075796302071</v>
+        <v>7.381947932303171</v>
       </c>
       <c r="D4">
-        <v>5.219896409761584</v>
+        <v>5.212411272019915</v>
       </c>
       <c r="E4">
-        <v>8.102180268516037</v>
+        <v>7.972643934872857</v>
       </c>
       <c r="F4">
-        <v>19.70591057168308</v>
+        <v>18.97936844290131</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.759892424208019</v>
+        <v>2.603352310607337</v>
       </c>
       <c r="I4">
-        <v>3.631866532758079</v>
+        <v>3.439907943240043</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>16.74527466034981</v>
+        <v>15.99909741215809</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.12651399659302</v>
       </c>
       <c r="M4">
-        <v>10.66991574077103</v>
+        <v>10.60064254920523</v>
       </c>
       <c r="N4">
-        <v>6.731520332465364</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.78703015212259</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.871264314898301</v>
       </c>
       <c r="Q4">
-        <v>16.73128279296888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.11607207927947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.20414772860134</v>
+        <v>12.20337730713844</v>
       </c>
       <c r="C5">
-        <v>7.589898153729066</v>
+        <v>7.311100557302335</v>
       </c>
       <c r="D5">
-        <v>5.177980114665876</v>
+        <v>5.164016018104153</v>
       </c>
       <c r="E5">
-        <v>8.030951175262897</v>
+        <v>7.908362613561086</v>
       </c>
       <c r="F5">
-        <v>19.62881478964233</v>
+        <v>18.92188787010272</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.81086480575724</v>
+        <v>2.651212289479546</v>
       </c>
       <c r="I5">
-        <v>3.675628454133226</v>
+        <v>3.480263049503747</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>16.74890659621022</v>
+        <v>16.0157066152096</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.15577463164113</v>
       </c>
       <c r="M5">
-        <v>10.5005680198082</v>
+        <v>10.61299490133184</v>
       </c>
       <c r="N5">
-        <v>6.657942872081786</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.61390807722621</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.798596348467586</v>
       </c>
       <c r="Q5">
-        <v>16.71770084767143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.11675187637918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.15890538201922</v>
+        <v>12.15954898451863</v>
       </c>
       <c r="C6">
-        <v>7.585852073408121</v>
+        <v>7.304749780029949</v>
       </c>
       <c r="D6">
-        <v>5.172818914536484</v>
+        <v>5.157830076944698</v>
       </c>
       <c r="E6">
-        <v>8.015827161930899</v>
+        <v>7.894562731290995</v>
       </c>
       <c r="F6">
-        <v>19.60501880217341</v>
+        <v>18.90184004927967</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.819787707111642</v>
+        <v>2.659605300932019</v>
       </c>
       <c r="I6">
-        <v>3.686272888009654</v>
+        <v>3.490934193224257</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>16.74146638105443</v>
+        <v>16.01103185122727</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.15363849441408</v>
       </c>
       <c r="M6">
-        <v>10.47415261181969</v>
+        <v>10.61106220981602</v>
       </c>
       <c r="N6">
-        <v>6.646340150000672</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.58679627111394</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.787111076337428</v>
       </c>
       <c r="Q6">
-        <v>16.70748149284695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.10935398327448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.4455007062586</v>
+        <v>12.43737721866529</v>
       </c>
       <c r="C7">
-        <v>7.652144919640637</v>
+        <v>7.395889604816308</v>
       </c>
       <c r="D7">
-        <v>5.224345969400744</v>
+        <v>5.216927789965787</v>
       </c>
       <c r="E7">
-        <v>8.092563703298545</v>
+        <v>7.963571781371064</v>
       </c>
       <c r="F7">
-        <v>19.67476768772372</v>
+        <v>18.9498717932209</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.76162321421535</v>
+        <v>2.6050151191206</v>
       </c>
       <c r="I7">
-        <v>3.641219585205666</v>
+        <v>3.450774858354508</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>16.7232654616437</v>
+        <v>15.9790266017859</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.10827480275088</v>
       </c>
       <c r="M7">
-        <v>10.67299630093904</v>
+        <v>10.58878084632481</v>
       </c>
       <c r="N7">
-        <v>6.732414799037384</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.78988651848815</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.872064094280122</v>
       </c>
       <c r="Q7">
-        <v>16.70919562119049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.0954763702618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.64092789364694</v>
+        <v>13.59682001104355</v>
       </c>
       <c r="C8">
-        <v>7.926778140638318</v>
+        <v>7.775445955357359</v>
       </c>
       <c r="D8">
-        <v>5.440241372548389</v>
+        <v>5.465229688067283</v>
       </c>
       <c r="E8">
-        <v>8.426733274783388</v>
+        <v>8.264107216021067</v>
       </c>
       <c r="F8">
-        <v>20.02425450145333</v>
+        <v>19.20126695719176</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.513702947965622</v>
+        <v>2.37236730727856</v>
       </c>
       <c r="I8">
-        <v>3.443140270145829</v>
+        <v>3.272490454588029</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>16.67095020481916</v>
+        <v>15.86213016187281</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.92791757686378</v>
       </c>
       <c r="M8">
-        <v>11.50322767333994</v>
+        <v>10.53849950953238</v>
       </c>
       <c r="N8">
-        <v>7.098131215890145</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.63832838120244</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.233873447718812</v>
       </c>
       <c r="Q8">
-        <v>16.7491514455785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.06378124895472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.7232743596923</v>
+        <v>15.61798049460347</v>
       </c>
       <c r="C9">
-        <v>8.42154332292135</v>
+        <v>8.461467547121108</v>
       </c>
       <c r="D9">
-        <v>5.829368224250032</v>
+        <v>5.913806700099125</v>
       </c>
       <c r="E9">
-        <v>9.047399256286717</v>
+        <v>8.821917149645067</v>
       </c>
       <c r="F9">
-        <v>20.80464520843036</v>
+        <v>19.78618363732639</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.059968452232107</v>
+        <v>1.946848842150716</v>
       </c>
       <c r="I9">
-        <v>3.073063313233861</v>
+        <v>2.937850608419311</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>16.63356215113118</v>
+        <v>15.68717807463944</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.60915056868659</v>
       </c>
       <c r="M9">
-        <v>12.96713798685943</v>
+        <v>10.59920294639692</v>
       </c>
       <c r="N9">
-        <v>7.7637319548642</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.13508941021778</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.894995177842241</v>
       </c>
       <c r="Q9">
-        <v>16.90912560872697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.07566654004526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.06410612677015</v>
+        <v>16.92261712577641</v>
       </c>
       <c r="C10">
-        <v>8.817130717610011</v>
+        <v>8.994201933385279</v>
       </c>
       <c r="D10">
-        <v>6.124280269763389</v>
+        <v>6.248138526235558</v>
       </c>
       <c r="E10">
-        <v>9.304040556729776</v>
+        <v>9.043111227339857</v>
       </c>
       <c r="F10">
-        <v>21.25465066203774</v>
+        <v>20.11251509490544</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.779689551162755</v>
+        <v>1.686496173431191</v>
       </c>
       <c r="I10">
-        <v>2.831615233861974</v>
+        <v>2.722501714303122</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>16.5166031202781</v>
+        <v>15.48369658805329</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.31538282072361</v>
       </c>
       <c r="M10">
-        <v>13.96199574817906</v>
+        <v>10.65413220255998</v>
       </c>
       <c r="N10">
-        <v>8.089030507322327</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.14933814193409</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.217761000933725</v>
       </c>
       <c r="Q10">
-        <v>16.94357260230095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.01458549488402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.45237407560818</v>
+        <v>17.32380623837225</v>
       </c>
       <c r="C11">
-        <v>9.403211123232937</v>
+        <v>9.650732113288301</v>
       </c>
       <c r="D11">
-        <v>6.472133347120125</v>
+        <v>6.598733824574992</v>
       </c>
       <c r="E11">
-        <v>8.119016055576168</v>
+        <v>7.91436581152746</v>
       </c>
       <c r="F11">
-        <v>20.27193928225894</v>
+        <v>19.22378730813971</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.78949082196081</v>
+        <v>2.733126935603807</v>
       </c>
       <c r="I11">
-        <v>2.786735977196116</v>
+        <v>2.687483301847237</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>15.62396390891334</v>
+        <v>14.70940426559977</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.71688100767699</v>
       </c>
       <c r="M11">
-        <v>14.52497734232237</v>
+        <v>10.11495984070053</v>
       </c>
       <c r="N11">
-        <v>7.124849297277773</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.69981768434463</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.245823857486694</v>
       </c>
       <c r="Q11">
-        <v>16.06690036990389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.22419656004848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.51666559076731</v>
+        <v>17.4061689215323</v>
       </c>
       <c r="C12">
-        <v>9.847105639628483</v>
+        <v>10.10331863555827</v>
       </c>
       <c r="D12">
-        <v>6.708065798823623</v>
+        <v>6.826098435776411</v>
       </c>
       <c r="E12">
-        <v>7.286674635451468</v>
+        <v>7.143388570392702</v>
       </c>
       <c r="F12">
-        <v>19.37661657788957</v>
+        <v>18.43243464033727</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.17327625570356</v>
+        <v>4.135062373970314</v>
       </c>
       <c r="I12">
-        <v>2.777579027327547</v>
+        <v>2.678606488658198</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>14.95621238688846</v>
+        <v>14.15461909961232</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.33011870764173</v>
       </c>
       <c r="M12">
-        <v>14.79422004915245</v>
+        <v>9.673280941558266</v>
       </c>
       <c r="N12">
-        <v>6.281062483026438</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.95404281084762</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.395939532535931</v>
       </c>
       <c r="Q12">
-        <v>15.35440520064842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.602258645784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.32924469268278</v>
+        <v>17.24273248811268</v>
       </c>
       <c r="C13">
-        <v>10.22428321121636</v>
+        <v>10.45012299542686</v>
       </c>
       <c r="D13">
-        <v>6.881437106374784</v>
+        <v>6.982372294626813</v>
       </c>
       <c r="E13">
-        <v>6.729138309021296</v>
+        <v>6.651579155619433</v>
       </c>
       <c r="F13">
-        <v>18.4402386237907</v>
+        <v>17.61726157634986</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.59828271451476</v>
+        <v>5.567843404673035</v>
       </c>
       <c r="I13">
-        <v>2.810539511532501</v>
+        <v>2.707296527345779</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>14.39476957456261</v>
+        <v>13.7091628914304</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.04669903858355</v>
       </c>
       <c r="M13">
-        <v>14.86770842288314</v>
+        <v>9.268881157515963</v>
       </c>
       <c r="N13">
-        <v>5.489191548411014</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.00911266521003</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.599270395061794</v>
       </c>
       <c r="Q13">
-        <v>14.6932537417589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.04212098506902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.07986164788686</v>
+        <v>17.01321574746857</v>
       </c>
       <c r="C14">
-        <v>10.46840887685234</v>
+        <v>10.65475470012138</v>
       </c>
       <c r="D14">
-        <v>6.977831263234124</v>
+        <v>7.062724088455763</v>
       </c>
       <c r="E14">
-        <v>6.541028585575917</v>
+        <v>6.506511928277203</v>
       </c>
       <c r="F14">
-        <v>17.75776661717211</v>
+        <v>17.02769131202446</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.607739483562887</v>
+        <v>6.580207005790327</v>
       </c>
       <c r="I14">
-        <v>2.85543139461986</v>
+        <v>2.747793476779502</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>14.05707970899888</v>
+        <v>13.45128291459745</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.89093133811327</v>
       </c>
       <c r="M14">
-        <v>14.83304749183949</v>
+        <v>9.012879039369267</v>
       </c>
       <c r="N14">
-        <v>4.984790885659336</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.95967902189465</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.092348033413625</v>
       </c>
       <c r="Q14">
-        <v>14.25474219452681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.6780431868629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.96183042039377</v>
+        <v>16.90145595047749</v>
       </c>
       <c r="C15">
-        <v>10.51520159720922</v>
+        <v>10.68615609996102</v>
       </c>
       <c r="D15">
-        <v>6.988998637285492</v>
+        <v>7.068444133855969</v>
       </c>
       <c r="E15">
-        <v>6.522202840140201</v>
+        <v>6.497173836768242</v>
       </c>
       <c r="F15">
-        <v>17.57474514176641</v>
+        <v>16.8712378154943</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.842896211477088</v>
+        <v>6.815524487931135</v>
       </c>
       <c r="I15">
-        <v>2.880380344281559</v>
+        <v>2.771469188602903</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>13.98935893184753</v>
+        <v>13.40391581081594</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.86440023597611</v>
       </c>
       <c r="M15">
-        <v>14.78395958149369</v>
+        <v>8.957258961711522</v>
       </c>
       <c r="N15">
-        <v>4.869567511240152</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.90622631975195</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.976935815312963</v>
       </c>
       <c r="Q15">
-        <v>14.152979996929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.59678805193401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.43479858719326</v>
+        <v>16.3864106242945</v>
       </c>
       <c r="C16">
-        <v>10.29145587476494</v>
+        <v>10.41454917360112</v>
       </c>
       <c r="D16">
-        <v>6.839395376002258</v>
+        <v>6.906109795442259</v>
       </c>
       <c r="E16">
-        <v>6.496092828124944</v>
+        <v>6.469327782883816</v>
       </c>
       <c r="F16">
-        <v>17.52995045065756</v>
+        <v>16.85741007909112</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.645407469066889</v>
+        <v>6.613131631769702</v>
       </c>
       <c r="I16">
-        <v>2.98256217523029</v>
+        <v>2.864384076710877</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>14.14913241180813</v>
+        <v>13.57165858797023</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.98882514686706</v>
       </c>
       <c r="M16">
-        <v>14.36958694560004</v>
+        <v>9.043190623033992</v>
       </c>
       <c r="N16">
-        <v>4.860256732366686</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.48622503416847</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.971930354522635</v>
       </c>
       <c r="Q16">
-        <v>14.25995662608546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.72315630898803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.1605639153341</v>
+        <v>16.11043754675087</v>
       </c>
       <c r="C17">
-        <v>9.980932306355715</v>
+        <v>10.08919536947581</v>
       </c>
       <c r="D17">
-        <v>6.669783046244227</v>
+        <v>6.73542876223145</v>
       </c>
       <c r="E17">
-        <v>6.538736574763143</v>
+        <v>6.490796725779573</v>
       </c>
       <c r="F17">
-        <v>17.86325730883209</v>
+        <v>17.16490520728244</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.927511997940458</v>
+        <v>5.888755119496626</v>
       </c>
       <c r="I17">
-        <v>3.037971854905012</v>
+        <v>2.915102769357884</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>14.44297378883505</v>
+        <v>13.83221603708923</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.17606083660553</v>
       </c>
       <c r="M17">
-        <v>14.06434430124671</v>
+        <v>9.23217547545862</v>
       </c>
       <c r="N17">
-        <v>5.111678620356877</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.18486718966013</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.22736881835239</v>
       </c>
       <c r="Q17">
-        <v>14.57145794760761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.0111161332649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08661033734478</v>
+        <v>16.02228338466863</v>
       </c>
       <c r="C18">
-        <v>9.56481064087904</v>
+        <v>9.678012969407074</v>
       </c>
       <c r="D18">
-        <v>6.463983256973173</v>
+        <v>6.537693499758706</v>
       </c>
       <c r="E18">
-        <v>6.842581583630484</v>
+        <v>6.749827799454511</v>
       </c>
       <c r="F18">
-        <v>18.57977990536926</v>
+        <v>17.80232946196526</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.709674259456344</v>
+        <v>4.66022006362935</v>
       </c>
       <c r="I18">
-        <v>3.046818106831574</v>
+        <v>2.921060300463509</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>14.92290045551584</v>
+        <v>14.23475021976273</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.46922651352522</v>
       </c>
       <c r="M18">
-        <v>13.82087279318514</v>
+        <v>9.545219498498861</v>
       </c>
       <c r="N18">
-        <v>5.679855174168605</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.95391811852958</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.799329454897531</v>
       </c>
       <c r="Q18">
-        <v>15.11765136028106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.49181863581541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.16997523211659</v>
+        <v>16.08308472492328</v>
       </c>
       <c r="C19">
-        <v>9.159363313698755</v>
+        <v>9.284161247572424</v>
       </c>
       <c r="D19">
-        <v>6.262000576777289</v>
+        <v>6.348912273194997</v>
       </c>
       <c r="E19">
-        <v>7.568746789854147</v>
+        <v>7.414884088332093</v>
       </c>
       <c r="F19">
-        <v>19.50276854306483</v>
+        <v>18.61048594751071</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.28808421132703</v>
+        <v>3.220125787320261</v>
       </c>
       <c r="I19">
-        <v>3.033306097350966</v>
+        <v>2.910671004271189</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>15.522163480566</v>
+        <v>14.72399676805149</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.82789887033086</v>
       </c>
       <c r="M19">
-        <v>13.65901622205942</v>
+        <v>9.934066650691884</v>
       </c>
       <c r="N19">
-        <v>6.525938660154902</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.80975214741508</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.649127890279999</v>
       </c>
       <c r="Q19">
-        <v>15.7935787618683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.07275146900747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.7037604333076</v>
+        <v>16.57230338495859</v>
       </c>
       <c r="C20">
-        <v>8.752530540643489</v>
+        <v>8.902359641672817</v>
       </c>
       <c r="D20">
-        <v>6.063767362243025</v>
+        <v>6.17778934372027</v>
       </c>
       <c r="E20">
-        <v>9.207649722446488</v>
+        <v>8.957507499133685</v>
       </c>
       <c r="F20">
-        <v>21.04289265919664</v>
+        <v>19.93801288993625</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.853980066600692</v>
+        <v>1.755399551876062</v>
       </c>
       <c r="I20">
-        <v>2.924276319849142</v>
+        <v>2.814163497863815</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>16.47550653515645</v>
+        <v>15.47308910547803</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.34601334026385</v>
       </c>
       <c r="M20">
-        <v>13.72192125551088</v>
+        <v>10.58391065866385</v>
       </c>
       <c r="N20">
-        <v>8.004223855072812</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.90381033146521</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.133296075335705</v>
       </c>
       <c r="Q20">
-        <v>16.86294877111121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.96423313807711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.71849509701993</v>
+        <v>17.55552001184464</v>
       </c>
       <c r="C21">
-        <v>8.98071642885993</v>
+        <v>9.226956236275518</v>
       </c>
       <c r="D21">
-        <v>6.244623242188286</v>
+        <v>6.389942249384979</v>
       </c>
       <c r="E21">
-        <v>9.653631733187902</v>
+        <v>9.365105632787282</v>
       </c>
       <c r="F21">
-        <v>21.62174155605453</v>
+        <v>20.39577241415547</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.595550289536471</v>
+        <v>1.608144278445031</v>
       </c>
       <c r="I21">
-        <v>2.731405774087157</v>
+        <v>2.641367928585045</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>16.55510634970943</v>
+        <v>15.45576282123917</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.22059545639497</v>
       </c>
       <c r="M21">
-        <v>14.42823939075973</v>
+        <v>10.75848362183966</v>
       </c>
       <c r="N21">
-        <v>8.447169435298175</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.62795595769782</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.575893767267798</v>
       </c>
       <c r="Q21">
-        <v>17.06977649881504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.07337632037219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.34822033756747</v>
+        <v>18.16692498699514</v>
       </c>
       <c r="C22">
-        <v>9.133911734291127</v>
+        <v>9.439579321011383</v>
       </c>
       <c r="D22">
-        <v>6.365766384474216</v>
+        <v>6.530045323542029</v>
       </c>
       <c r="E22">
-        <v>9.863832810524668</v>
+        <v>9.554228760499829</v>
       </c>
       <c r="F22">
-        <v>21.9694341241031</v>
+        <v>20.67250764947908</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.673985889070574</v>
+        <v>1.746320849952536</v>
       </c>
       <c r="I22">
-        <v>2.598765251976356</v>
+        <v>2.518996740744645</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>16.58928784296037</v>
+        <v>15.43204189166141</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.12646148994492</v>
       </c>
       <c r="M22">
-        <v>14.87399793142225</v>
+        <v>10.87598152934208</v>
       </c>
       <c r="N22">
-        <v>8.660007398742559</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.08379349494287</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.788427666754838</v>
       </c>
       <c r="Q22">
-        <v>17.18569851671479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.13109949865312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.02126376426422</v>
+        <v>17.84942542054434</v>
       </c>
       <c r="C23">
-        <v>9.039059191532523</v>
+        <v>9.310205610027328</v>
       </c>
       <c r="D23">
-        <v>6.296045586389035</v>
+        <v>6.450144714596917</v>
       </c>
       <c r="E23">
-        <v>9.760665101099859</v>
+        <v>9.461761160747638</v>
       </c>
       <c r="F23">
-        <v>21.81512804860338</v>
+        <v>20.55441990161835</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.596444601494398</v>
+        <v>1.673736801845293</v>
       </c>
       <c r="I23">
-        <v>2.657054662324104</v>
+        <v>2.569427412924584</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>16.59576224682685</v>
+        <v>15.46689434505203</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.19193518310493</v>
       </c>
       <c r="M23">
-        <v>14.63280770104922</v>
+        <v>10.83091993574419</v>
       </c>
       <c r="N23">
-        <v>8.545144638643901</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.83741537016015</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.673789596042363</v>
       </c>
       <c r="Q23">
-        <v>17.14762789339684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.12243922438076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.71407074708916</v>
+        <v>16.58010579702853</v>
       </c>
       <c r="C24">
-        <v>8.695327161512747</v>
+        <v>8.836805952669684</v>
       </c>
       <c r="D24">
-        <v>6.033553610599705</v>
+        <v>6.147981652058424</v>
       </c>
       <c r="E24">
-        <v>9.34438651276265</v>
+        <v>9.088002821415596</v>
       </c>
       <c r="F24">
-        <v>21.18943030754762</v>
+        <v>20.07043231589499</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.832818528275694</v>
+        <v>1.734017831062538</v>
       </c>
       <c r="I24">
-        <v>2.904486585459117</v>
+        <v>2.790926960045044</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>16.58898477179095</v>
+        <v>15.56999178715454</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.41799377239107</v>
       </c>
       <c r="M24">
-        <v>13.69060070574092</v>
+        <v>10.65936314187234</v>
       </c>
       <c r="N24">
-        <v>8.099844160821526</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.87431929395419</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.229621275155004</v>
       </c>
       <c r="Q24">
-        <v>16.97753661776824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.0660558391205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.17772723124808</v>
+        <v>15.08843060810687</v>
       </c>
       <c r="C25">
-        <v>8.311321293983719</v>
+        <v>8.305669461050663</v>
       </c>
       <c r="D25">
-        <v>5.73563064449977</v>
+        <v>5.804701261324856</v>
       </c>
       <c r="E25">
-        <v>8.870870775256705</v>
+        <v>8.662716928514399</v>
       </c>
       <c r="F25">
-        <v>20.5377763493733</v>
+        <v>19.574529809053</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.180784700580173</v>
+        <v>2.060156401594245</v>
       </c>
       <c r="I25">
-        <v>3.185898615080863</v>
+        <v>3.044213665820085</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>16.6016339090257</v>
+        <v>15.69703506669557</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.66734421983665</v>
       </c>
       <c r="M25">
-        <v>12.59651216942211</v>
+        <v>10.54168408064791</v>
       </c>
       <c r="N25">
-        <v>7.592305252893065</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.75570404990176</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.724339518193755</v>
       </c>
       <c r="Q25">
-        <v>16.8225650254543</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.03220448134233</v>
       </c>
     </row>
   </sheetData>
